--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\trans\BRAaCTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BRAaCTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E3DA3E91-76B2-4E00-B280-A24BBC976430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34B0EDE7-2334-402C-8571-BE058B142D42}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC02F20B-346B-4E17-A776-81D370EAD24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="4" r:id="rId2"/>
-    <sheet name="BRAaCTSC" sheetId="3" r:id="rId3"/>
+    <sheet name="EV charger assumptions" sheetId="5" r:id="rId3"/>
+    <sheet name="BRAaCTSC" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="income">Calculations!$B$10</definedName>
     <definedName name="Range_EV">Calculations!$B$9</definedName>
     <definedName name="range_ICE">Calculations!$B$8</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -64,12 +64,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Shadow cost</t>
+  </si>
   <si>
     <t>BRAaCTSC BAU Range Anxiety and Charging Time Shadow Cost</t>
   </si>
   <si>
-    <t>Source:</t>
+    <t>This variable represents the perceived cost of range anxiety - the fear (or inconvenience around) that</t>
+  </si>
+  <si>
+    <t>the vehicle has insufficient range to reach its destination.</t>
+  </si>
+  <si>
+    <t>Cost ($/vehicle)</t>
+  </si>
+  <si>
+    <t>addressed by fueling availability and range value</t>
+  </si>
+  <si>
+    <t>Ignored, because vast majority of charging can be done overnight and other concerns</t>
+  </si>
+  <si>
+    <t>Fueling time</t>
+  </si>
+  <si>
+    <t>y = 220.9751 + 7258.141*e^(-28.95171*x)</t>
+  </si>
+  <si>
+    <t>Fueling Availability</t>
+  </si>
+  <si>
+    <t>income (thousand USD)</t>
+  </si>
+  <si>
+    <t>range ev (hundred miles)</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>Range Compensating Value</t>
+  </si>
+  <si>
+    <t>cv (thousand USD)</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/library/publications/2020/demo/p60-270.html</t>
   </si>
   <si>
     <t>Median US Income</t>
@@ -81,12 +138,12 @@
     <t>Income and Poverty in the United States: 2019</t>
   </si>
   <si>
-    <t>https://www.census.gov/library/publications/2020/demo/p60-270.html</t>
-  </si>
-  <si>
     <t>First bullet of "Highlights"</t>
   </si>
   <si>
+    <t>2019 to 2012 USD</t>
+  </si>
+  <si>
     <t>Range and Fueling Availability 'Costs'</t>
   </si>
   <si>
@@ -96,6 +153,15 @@
     <t>https://www.nrel.gov/docs/fy13osti/55639.pdf</t>
   </si>
   <si>
+    <t>Number of gas pumps</t>
+  </si>
+  <si>
+    <t>Ratio of EVSE ports:Gas pumps</t>
+  </si>
+  <si>
+    <t>Corresponding Fueling Availbility Shadow Cost</t>
+  </si>
+  <si>
     <t>Number of Gas pumps</t>
   </si>
   <si>
@@ -105,21 +171,21 @@
     <t>Stop Comparing the Number of Gas Stations to EV Charging Stations</t>
   </si>
   <si>
+    <t>Number of EVSE Ports</t>
+  </si>
+  <si>
+    <t>Alternative Fuels Data Center</t>
+  </si>
+  <si>
+    <t>Electric Vehicle Charging Station Locations</t>
+  </si>
+  <si>
+    <t>https://afdc.energy.gov/fuels/electricity_locations.html#/analyze?fuel=ELEC</t>
+  </si>
+  <si>
     <t>https://cleantechnica.com/2018/03/07/stop-comparing-number-gas-stations-ev-charging-stations/</t>
   </si>
   <si>
-    <t>Number of EVSE Ports</t>
-  </si>
-  <si>
-    <t>Alternative Fuels Data Center</t>
-  </si>
-  <si>
-    <t>Electric Vehicle Charging Station Locations</t>
-  </si>
-  <si>
-    <t>https://afdc.energy.gov/fuels/electricity_locations.html#/analyze?fuel=ELEC</t>
-  </si>
-  <si>
     <t>Gasoline vehicle range</t>
   </si>
   <si>
@@ -132,27 +198,21 @@
     <t>First Figure</t>
   </si>
   <si>
+    <t>median range ice (hundred miles)</t>
+  </si>
+  <si>
+    <t>Inside Evs</t>
+  </si>
+  <si>
+    <t>The Median Range of Fully Electric Vehicles Exceeded 250 Miles in 2020</t>
+  </si>
+  <si>
+    <t>https://insideevs.com/news/464449/median-range-evs-2020-exceeded-250-miles/</t>
+  </si>
+  <si>
     <t>EV range</t>
   </si>
   <si>
-    <t>Inside Evs</t>
-  </si>
-  <si>
-    <t>The Median Range of Fully Electric Vehicles Exceeded 250 Miles in 2020</t>
-  </si>
-  <si>
-    <t>https://insideevs.com/news/464449/median-range-evs-2020-exceeded-250-miles/</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>This variable represents the perceived cost of range anxiety - the fear (or inconvenience around) that</t>
-  </si>
-  <si>
-    <t>the vehicle has insufficient range to reach its destination.</t>
-  </si>
-  <si>
     <t>In the US, we use a DOE study to calculate a Range Compensating Value and a Fuel Availability Value.</t>
   </si>
   <si>
@@ -162,94 +222,49 @@
     <t>and the median ranges of ICE and EV vehicles. For EV vehicles, the current median range has already surpassed</t>
   </si>
   <si>
+    <t>The Fuel Availability Value uses parameters from the DOE study and a comparison of the number of</t>
+  </si>
+  <si>
+    <t>Currency Conversion</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
     <t xml:space="preserve">250 miles and is forecated to continue improving. Therefore, we start with today's median range, and assume </t>
   </si>
   <si>
     <t>the range will reach 300 miles by 2050.</t>
   </si>
   <si>
-    <t>The Fuel Availability Value uses parameters from the DOE study and a comparison of the number of</t>
-  </si>
-  <si>
     <t>EV charging ports and gas pumps. We also assume this value will decline to 0 by 2050 as more EV chargers come online.</t>
   </si>
   <si>
-    <t>Currency Conversion</t>
-  </si>
-  <si>
-    <t>2019 to 2012 USD</t>
-  </si>
-  <si>
-    <t>Range Compensating Value</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>Year 2020</t>
-  </si>
-  <si>
-    <t>Year 2030</t>
-  </si>
-  <si>
-    <t>Year 2050</t>
-  </si>
-  <si>
-    <t>median range ice (hundred miles)</t>
-  </si>
-  <si>
-    <t>range ev (hundred miles)</t>
-  </si>
-  <si>
-    <t>income (thousand USD)</t>
-  </si>
-  <si>
-    <t>cv (thousand USD)</t>
-  </si>
-  <si>
-    <t>Fueling Availability</t>
-  </si>
-  <si>
-    <t>y = 220.9751 + 7258.141*e^(-28.95171*x)</t>
-  </si>
-  <si>
-    <t>EVSE ports:</t>
-  </si>
-  <si>
-    <t>Number of gas pumps</t>
-  </si>
-  <si>
-    <t>Ratio of EVSE ports:Gas pumps</t>
-  </si>
-  <si>
-    <t>Corresponding Fueling Availbility Shadow Cost</t>
-  </si>
-  <si>
-    <t>Fueling time</t>
-  </si>
-  <si>
-    <t>Ignored, because vast majority of charging can be done overnight and other concerns</t>
-  </si>
-  <si>
-    <t>addressed by fueling availability and range value</t>
-  </si>
-  <si>
-    <t>Calculations</t>
-  </si>
-  <si>
-    <t>Cost ($/vehicle)</t>
-  </si>
-  <si>
-    <t>Shadow cost</t>
+    <t xml:space="preserve">*2020 median range taken from historical data. 2030 and 2050 are estimated, with the 2050 </t>
+  </si>
+  <si>
+    <t>range roughly corresponding to today's maximum range</t>
+  </si>
+  <si>
+    <t>We assume EV charger additions based on investments in the Infrastructure Investment and Jobs Act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total government funding: </t>
+  </si>
+  <si>
+    <t>($7.5 billion between 2022 and 2026), assuming 80% of the costs are paid for by the government.</t>
+  </si>
+  <si>
+    <t>Total government + private funding:</t>
+  </si>
+  <si>
+    <t>Average weighted charger cost (see trans/EVCC):</t>
+  </si>
+  <si>
+    <t>Chargers added by 2026:</t>
+  </si>
+  <si>
+    <t>2020 EVSE ports:</t>
   </si>
 </sst>
 </file>
@@ -259,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +284,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -299,10 +330,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -310,13 +342,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,11 +458,47 @@
             </c:spPr>
             <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8828958880139982E-2"/>
+                  <c:y val="-0.13703885898644008"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Calculations!$A$16:$A$19</c:f>
+              <c:f>Calculations!$A$17:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -444,7 +519,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calculations!$B$16:$B$19</c:f>
+              <c:f>Calculations!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1225,7 +1300,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1521,313 +1596,316 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
         <v>2016</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>37</v>
       </c>
       <c r="B53">
         <v>0.89805481563188172</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B38" r:id="rId1" xr:uid="{14EF0A86-0973-41E2-9D23-51C96C77958E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341A17B3-AFD9-42DA-AB68-E46FC6CF1D40}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>-0.36099999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1.268</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7">
+        <v>2030</v>
+      </c>
+      <c r="D7">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>46</v>
       </c>
       <c r="B8">
         <v>4.12</v>
@@ -1840,176 +1918,231 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2.59</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="10">
         <v>4.12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>68.703000000000003</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <f>income</f>
         <v>68.703000000000003</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="10">
         <f>B10</f>
         <v>68.703000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="5">
-        <f>($B$4/$B$2*B9*(1-B8/B9)+$B$5/$B$2*B9^2*(1-B8^2/B9^2))*LN(income)</f>
-        <v>8.7776895901028578</v>
-      </c>
-      <c r="C13" s="5">
-        <f>($B$4/$B$2*C9*(1-C8/C9)+$B$5/$B$2*C9^2*(1-C8^2/C9^2))*LN(income)</f>
-        <v>5.8013729917508945</v>
-      </c>
-      <c r="D13" s="5">
-        <f>($B$4/$B$2*D9*(1-D8/D9)+$B$5/$B$2*D9^2*(1-D8^2/D9^2))*LN(income)</f>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6">
+        <f>($B$4/$B$2*B9*(1-B8/B9)+$B$5/$B$2*B9^2*(1-B8^2/B9^2))*LN(income)*About!$B$53</f>
+        <v>7.8828464065137096</v>
+      </c>
+      <c r="C14" s="6">
+        <f>($B$4/$B$2*C9*(1-C8/C9)+$B$5/$B$2*C9^2*(1-C8^2/C9^2))*LN(income)*About!$B$53</f>
+        <v>5.2099509525186276</v>
+      </c>
+      <c r="D14" s="6">
+        <f>($B$4/$B$2*D9*(1-D8/D9)+$B$5/$B$2*D9^2*(1-D8^2/D9^2))*LN(income)*About!$B$53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>7500</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>0.05</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>1750</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>0.1</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24">
         <v>120045</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
         <v>1200000</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="C27">
+        <v>2027</v>
+      </c>
+      <c r="D27">
+        <v>2030</v>
+      </c>
+      <c r="E27">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <f>B24/B25</f>
+        <v>0.1000375</v>
+      </c>
+      <c r="C28">
+        <f>(B24+'EV charger assumptions'!B9)/Calculations!B25</f>
+        <v>0.41965865943214825</v>
+      </c>
+      <c r="D28">
+        <f>(E28-C28)/(E27-C27)*3+C28</f>
+        <v>0.495355356027955</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <f>B19*About!$B$53</f>
+        <v>898.05481563188175</v>
+      </c>
+      <c r="C29">
+        <f>-667.1*LN(C28)-241.23</f>
+        <v>338.02201174921117</v>
+      </c>
+      <c r="D29">
+        <f>-667.1*LN(D28)-241.23</f>
+        <v>227.39432995486422</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B25">
-        <f>B23/B24</f>
-        <v>0.1000375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26">
-        <f>B18</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>2020</v>
       </c>
-      <c r="B33">
-        <f>B13*1000+B26</f>
-        <v>9777.6895901028583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+      <c r="B36">
+        <f>B14*1000+B29</f>
+        <v>8780.9012221455905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2027</v>
+      </c>
+      <c r="B37" cm="1">
+        <f t="array" ref="B37">TREND(B14:C14,B7:C7,C27)*1000+C29</f>
+        <v>6349.8416004663277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>2030</v>
       </c>
-      <c r="B34">
-        <f>C13*1000+B26</f>
-        <v>6801.3729917508945</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
+      <c r="B38">
+        <f>C14*1000+D29</f>
+        <v>5437.3452824734923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>2050</v>
       </c>
-      <c r="B35">
-        <f>D13*1000+B26</f>
-        <v>1000</v>
+      <c r="B39">
+        <f>D14*1000+E29</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2020,542 +2153,313 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:AI2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D98A39-3A78-451F-9516-0CF8624C92E2}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2018</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="E1">
-        <v>2021</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2022</v>
-      </c>
-      <c r="G1">
-        <v>2023</v>
-      </c>
-      <c r="H1" s="4">
-        <v>2024</v>
-      </c>
-      <c r="I1">
-        <v>2025</v>
-      </c>
-      <c r="J1" s="4">
-        <v>2026</v>
-      </c>
-      <c r="K1">
-        <v>2027</v>
-      </c>
-      <c r="L1" s="4">
-        <v>2028</v>
-      </c>
-      <c r="M1">
-        <v>2029</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2030</v>
-      </c>
-      <c r="O1">
-        <v>2031</v>
-      </c>
-      <c r="P1" s="4">
-        <v>2032</v>
-      </c>
-      <c r="Q1">
-        <v>2033</v>
-      </c>
-      <c r="R1" s="4">
-        <v>2034</v>
-      </c>
-      <c r="S1">
-        <v>2035</v>
-      </c>
-      <c r="T1" s="4">
-        <v>2036</v>
-      </c>
-      <c r="U1">
-        <v>2037</v>
-      </c>
-      <c r="V1" s="4">
-        <v>2038</v>
-      </c>
-      <c r="W1">
-        <v>2039</v>
-      </c>
-      <c r="X1" s="4">
-        <v>2040</v>
-      </c>
-      <c r="Y1">
-        <v>2041</v>
-      </c>
-      <c r="Z1" s="4">
-        <v>2042</v>
-      </c>
-      <c r="AA1">
-        <v>2043</v>
-      </c>
-      <c r="AB1" s="4">
-        <v>2044</v>
-      </c>
-      <c r="AC1">
-        <v>2045</v>
-      </c>
-      <c r="AD1" s="4">
-        <v>2046</v>
-      </c>
-      <c r="AE1">
-        <v>2047</v>
-      </c>
-      <c r="AF1" s="4">
-        <v>2048</v>
-      </c>
-      <c r="AG1">
-        <v>2049</v>
-      </c>
-      <c r="AH1" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3" cm="1">
-        <f t="array" ref="B2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!B1)</f>
-        <v>9777.6895901027601</v>
-      </c>
-      <c r="C2" s="3" cm="1">
-        <f t="array" ref="C2">TREND(D2:H2,D1:H1,C1)</f>
-        <v>10372.952909773216</v>
-      </c>
-      <c r="D2" s="3" cm="1">
-        <f t="array" ref="D2">TREND(E2:I2,E1:I1,D1)</f>
-        <v>10075.321249937988</v>
-      </c>
-      <c r="E2" s="3" cm="1">
-        <f t="array" ref="E2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!E1)</f>
-        <v>9480.0579302676488</v>
-      </c>
-      <c r="F2" s="3" cm="1">
-        <f t="array" ref="F2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!F1)</f>
-        <v>9182.426270432421</v>
-      </c>
-      <c r="G2" s="3" cm="1">
-        <f t="array" ref="G2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!G1)</f>
-        <v>8884.7946105971932</v>
-      </c>
-      <c r="H2" s="3" cm="1">
-        <f t="array" ref="H2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!H1)</f>
-        <v>8587.1629507620819</v>
-      </c>
-      <c r="I2" s="3" cm="1">
-        <f t="array" ref="I2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!I1)</f>
-        <v>8289.5312909268541</v>
-      </c>
-      <c r="J2" s="3" cm="1">
-        <f t="array" ref="J2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!J1)</f>
-        <v>7991.8996310916264</v>
-      </c>
-      <c r="K2" s="3" cm="1">
-        <f t="array" ref="K2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!K1)</f>
-        <v>7694.2679712563986</v>
-      </c>
-      <c r="L2" s="3" cm="1">
-        <f t="array" ref="L2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!L1)</f>
-        <v>7396.6363114212872</v>
-      </c>
-      <c r="M2" s="3" cm="1">
-        <f t="array" ref="M2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!M1)</f>
-        <v>7099.0046515860595</v>
-      </c>
-      <c r="N2" s="3" cm="1">
-        <f t="array" ref="N2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!N1)</f>
-        <v>6801.3729917508317</v>
-      </c>
-      <c r="O2" s="3" cm="1">
-        <f t="array" ref="O2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!O1)</f>
-        <v>6511.3043421633774</v>
-      </c>
-      <c r="P2" s="3" cm="1">
-        <f t="array" ref="P2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!P1)</f>
-        <v>6221.2356925758068</v>
-      </c>
-      <c r="Q2" s="3" cm="1">
-        <f t="array" ref="Q2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Q1)</f>
-        <v>5931.1670429883525</v>
-      </c>
-      <c r="R2" s="3" cm="1">
-        <f t="array" ref="R2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!R1)</f>
-        <v>5641.0983934007818</v>
-      </c>
-      <c r="S2" s="3" cm="1">
-        <f t="array" ref="S2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!S1)</f>
-        <v>5351.0297438132111</v>
-      </c>
-      <c r="T2" s="3" cm="1">
-        <f t="array" ref="T2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!T1)</f>
-        <v>5060.9610942256404</v>
-      </c>
-      <c r="U2" s="3" cm="1">
-        <f t="array" ref="U2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!U1)</f>
-        <v>4770.8924446381861</v>
-      </c>
-      <c r="V2" s="3" cm="1">
-        <f t="array" ref="V2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!V1)</f>
-        <v>4480.8237950506154</v>
-      </c>
-      <c r="W2" s="3" cm="1">
-        <f t="array" ref="W2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!W1)</f>
-        <v>4190.7551454630448</v>
-      </c>
-      <c r="X2" s="3" cm="1">
-        <f t="array" ref="X2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!X1)</f>
-        <v>3900.6864958754741</v>
-      </c>
-      <c r="Y2" s="3" cm="1">
-        <f t="array" ref="Y2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Y1)</f>
-        <v>3610.6178462879034</v>
-      </c>
-      <c r="Z2" s="3" cm="1">
-        <f t="array" ref="Z2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Z1)</f>
-        <v>3320.5491967004491</v>
-      </c>
-      <c r="AA2" s="3" cm="1">
-        <f t="array" ref="AA2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AA1)</f>
-        <v>3030.4805471128784</v>
-      </c>
-      <c r="AB2" s="3" cm="1">
-        <f t="array" ref="AB2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AB1)</f>
-        <v>2740.4118975253077</v>
-      </c>
-      <c r="AC2" s="3" cm="1">
-        <f t="array" ref="AC2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AC1)</f>
-        <v>2450.343247937737</v>
-      </c>
-      <c r="AD2" s="3" cm="1">
-        <f t="array" ref="AD2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AD1)</f>
-        <v>2160.2745983502828</v>
-      </c>
-      <c r="AE2" s="3" cm="1">
-        <f t="array" ref="AE2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AE1)</f>
-        <v>1870.2059487627121</v>
-      </c>
-      <c r="AF2" s="3" cm="1">
-        <f t="array" ref="AF2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AF1)</f>
-        <v>1580.1372991751414</v>
-      </c>
-      <c r="AG2" s="3" cm="1">
-        <f t="array" ref="AG2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AG1)</f>
-        <v>1290.0686495875707</v>
-      </c>
-      <c r="AH2" s="3" cm="1">
-        <f t="array" ref="AH2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AH1)</f>
-        <v>1000</v>
-      </c>
-      <c r="AI2" s="3"/>
+      <c r="B4">
+        <v>7500000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <f>B4/0.8</f>
+        <v>9375000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>24443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3">
+        <f>B5/B7</f>
+        <v>383545.39131857792</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
-                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46A52D7-DB8F-4B82-AC10-C8C125CE2827}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E26F15-6A12-499B-9D28-5F7ED7789135}"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2024</v>
+      </c>
+      <c r="G1">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2030</v>
+      </c>
+      <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
+        <v>2035</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1" s="4">
+        <v>2040</v>
+      </c>
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
+        <v>2045</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" cm="1">
+        <f t="array" ref="B2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!B1)</f>
+        <v>8780.9012221456505</v>
+      </c>
+      <c r="C2" s="3" cm="1">
+        <f t="array" ref="C2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!C1)</f>
+        <v>8433.6069904771866</v>
+      </c>
+      <c r="D2" s="3" cm="1">
+        <f t="array" ref="D2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!D1)</f>
+        <v>8086.3127588086063</v>
+      </c>
+      <c r="E2" s="3" cm="1">
+        <f t="array" ref="E2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!E1)</f>
+        <v>7739.0185271401424</v>
+      </c>
+      <c r="F2" s="3" cm="1">
+        <f t="array" ref="F2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!F1)</f>
+        <v>7391.7242954716785</v>
+      </c>
+      <c r="G2" s="3" cm="1">
+        <f t="array" ref="G2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!G1)</f>
+        <v>7044.4300638032146</v>
+      </c>
+      <c r="H2" s="3" cm="1">
+        <f t="array" ref="H2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!H1)</f>
+        <v>6697.1358321347507</v>
+      </c>
+      <c r="I2" s="3" cm="1">
+        <f t="array" ref="I2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!I1)</f>
+        <v>6349.8416004662868</v>
+      </c>
+      <c r="J2" s="3" cm="1">
+        <f t="array" ref="J2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!J1)</f>
+        <v>6045.6761611354304</v>
+      </c>
+      <c r="K2" s="3" cm="1">
+        <f t="array" ref="K2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!K1)</f>
+        <v>5741.5107218045741</v>
+      </c>
+      <c r="L2" s="3" cm="1">
+        <f t="array" ref="L2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!L1)</f>
+        <v>5437.3452824736014</v>
+      </c>
+      <c r="M2" s="3" cm="1">
+        <f t="array" ref="M2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!M1)</f>
+        <v>5165.4780183498515</v>
+      </c>
+      <c r="N2" s="3" cm="1">
+        <f t="array" ref="N2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!N1)</f>
+        <v>4893.610754226218</v>
+      </c>
+      <c r="O2" s="3" cm="1">
+        <f t="array" ref="O2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!O1)</f>
+        <v>4621.7434901024681</v>
+      </c>
+      <c r="P2" s="3" cm="1">
+        <f t="array" ref="P2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!P1)</f>
+        <v>4349.8762259788346</v>
+      </c>
+      <c r="Q2" s="3" cm="1">
+        <f t="array" ref="Q2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Q1)</f>
+        <v>4078.0089618552011</v>
+      </c>
+      <c r="R2" s="3" cm="1">
+        <f t="array" ref="R2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!R1)</f>
+        <v>3806.1416977314511</v>
+      </c>
+      <c r="S2" s="3" cm="1">
+        <f t="array" ref="S2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!S1)</f>
+        <v>3534.2744336078176</v>
+      </c>
+      <c r="T2" s="3" cm="1">
+        <f t="array" ref="T2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!T1)</f>
+        <v>3262.4071694841841</v>
+      </c>
+      <c r="U2" s="3" cm="1">
+        <f t="array" ref="U2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!U1)</f>
+        <v>2990.5399053604342</v>
+      </c>
+      <c r="V2" s="3" cm="1">
+        <f t="array" ref="V2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!V1)</f>
+        <v>2718.6726412368007</v>
+      </c>
+      <c r="W2" s="3" cm="1">
+        <f t="array" ref="W2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!W1)</f>
+        <v>2446.8053771130508</v>
+      </c>
+      <c r="X2" s="3" cm="1">
+        <f t="array" ref="X2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!X1)</f>
+        <v>2174.9381129894173</v>
+      </c>
+      <c r="Y2" s="3" cm="1">
+        <f t="array" ref="Y2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Y1)</f>
+        <v>1903.0708488657838</v>
+      </c>
+      <c r="Z2" s="3" cm="1">
+        <f t="array" ref="Z2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Z1)</f>
+        <v>1631.2035847420339</v>
+      </c>
+      <c r="AA2" s="3" cm="1">
+        <f t="array" ref="AA2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AA1)</f>
+        <v>1359.3363206184004</v>
+      </c>
+      <c r="AB2" s="3" cm="1">
+        <f t="array" ref="AB2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AB1)</f>
+        <v>1087.4690564947668</v>
+      </c>
+      <c r="AC2" s="3" cm="1">
+        <f t="array" ref="AC2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AC1)</f>
+        <v>815.60179237101693</v>
+      </c>
+      <c r="AD2" s="3" cm="1">
+        <f t="array" ref="AD2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AD1)</f>
+        <v>543.73452824738342</v>
+      </c>
+      <c r="AE2" s="3" cm="1">
+        <f t="array" ref="AE2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AE1)</f>
+        <v>271.86726412374992</v>
+      </c>
+      <c r="AF2" s="3" cm="1">
+        <f t="array" ref="AF2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AF1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25602"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BRAaCTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\trans\BRAaCTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC02F20B-346B-4E17-A776-81D370EAD24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E3DA3E91-76B2-4E00-B280-A24BBC976430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34B0EDE7-2334-402C-8571-BE058B142D42}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="4" r:id="rId2"/>
-    <sheet name="EV charger assumptions" sheetId="5" r:id="rId3"/>
-    <sheet name="BRAaCTSC" sheetId="3" r:id="rId4"/>
+    <sheet name="BRAaCTSC" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="income">Calculations!$B$10</definedName>
     <definedName name="Range_EV">Calculations!$B$9</definedName>
     <definedName name="range_ICE">Calculations!$B$8</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -64,207 +64,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+  <si>
+    <t>BRAaCTSC BAU Range Anxiety and Charging Time Shadow Cost</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>Median US Income</t>
+  </si>
+  <si>
+    <t>United States Census Bureau</t>
+  </si>
+  <si>
+    <t>Income and Poverty in the United States: 2019</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/library/publications/2020/demo/p60-270.html</t>
+  </si>
+  <si>
+    <t>First bullet of "Highlights"</t>
+  </si>
+  <si>
+    <t>Range and Fueling Availability 'Costs'</t>
+  </si>
+  <si>
+    <t>US Department of Energy</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy13osti/55639.pdf</t>
+  </si>
+  <si>
+    <t>Number of Gas pumps</t>
+  </si>
+  <si>
+    <t>CleanTechnica</t>
+  </si>
+  <si>
+    <t>Stop Comparing the Number of Gas Stations to EV Charging Stations</t>
+  </si>
+  <si>
+    <t>https://cleantechnica.com/2018/03/07/stop-comparing-number-gas-stations-ev-charging-stations/</t>
+  </si>
+  <si>
+    <t>Number of EVSE Ports</t>
+  </si>
+  <si>
+    <t>Alternative Fuels Data Center</t>
+  </si>
+  <si>
+    <t>Electric Vehicle Charging Station Locations</t>
+  </si>
+  <si>
+    <t>https://afdc.energy.gov/fuels/electricity_locations.html#/analyze?fuel=ELEC</t>
+  </si>
+  <si>
+    <t>Gasoline vehicle range</t>
+  </si>
+  <si>
+    <t>All-Electric Vehicle Ranges Can Exceed Those of Some Gasoline Vehicles</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/eere/vehicles/fact-939-august-22-2016-all-electric-vehicle-ranges-can-exceed-those-some-gasoline</t>
+  </si>
+  <si>
+    <t>First Figure</t>
+  </si>
+  <si>
+    <t>EV range</t>
+  </si>
+  <si>
+    <t>Inside Evs</t>
+  </si>
+  <si>
+    <t>The Median Range of Fully Electric Vehicles Exceeded 250 Miles in 2020</t>
+  </si>
+  <si>
+    <t>https://insideevs.com/news/464449/median-range-evs-2020-exceeded-250-miles/</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>This variable represents the perceived cost of range anxiety - the fear (or inconvenience around) that</t>
+  </si>
+  <si>
+    <t>the vehicle has insufficient range to reach its destination.</t>
+  </si>
+  <si>
+    <t>In the US, we use a DOE study to calculate a Range Compensating Value and a Fuel Availability Value.</t>
+  </si>
+  <si>
+    <t>The Range Compensating Value uses parameters from the DOE study, the median household income,</t>
+  </si>
+  <si>
+    <t>and the median ranges of ICE and EV vehicles. For EV vehicles, the current median range has already surpassed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250 miles and is forecated to continue improving. Therefore, we start with today's median range, and assume </t>
+  </si>
+  <si>
+    <t>the range will reach 300 miles by 2050.</t>
+  </si>
+  <si>
+    <t>The Fuel Availability Value uses parameters from the DOE study and a comparison of the number of</t>
+  </si>
+  <si>
+    <t>EV charging ports and gas pumps. We also assume this value will decline to 0 by 2050 as more EV chargers come online.</t>
+  </si>
+  <si>
+    <t>Currency Conversion</t>
+  </si>
+  <si>
+    <t>2019 to 2012 USD</t>
+  </si>
+  <si>
+    <t>Range Compensating Value</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>Year 2020</t>
+  </si>
+  <si>
+    <t>Year 2030</t>
+  </si>
+  <si>
+    <t>Year 2050</t>
+  </si>
+  <si>
+    <t>median range ice (hundred miles)</t>
+  </si>
+  <si>
+    <t>range ev (hundred miles)</t>
+  </si>
+  <si>
+    <t>income (thousand USD)</t>
+  </si>
+  <si>
+    <t>cv (thousand USD)</t>
+  </si>
+  <si>
+    <t>Fueling Availability</t>
+  </si>
+  <si>
+    <t>y = 220.9751 + 7258.141*e^(-28.95171*x)</t>
+  </si>
+  <si>
+    <t>EVSE ports:</t>
+  </si>
+  <si>
+    <t>Number of gas pumps</t>
+  </si>
+  <si>
+    <t>Ratio of EVSE ports:Gas pumps</t>
+  </si>
+  <si>
+    <t>Corresponding Fueling Availbility Shadow Cost</t>
+  </si>
+  <si>
+    <t>Fueling time</t>
+  </si>
+  <si>
+    <t>Ignored, because vast majority of charging can be done overnight and other concerns</t>
+  </si>
+  <si>
+    <t>addressed by fueling availability and range value</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Cost ($/vehicle)</t>
+  </si>
+  <si>
     <t>Shadow cost</t>
-  </si>
-  <si>
-    <t>BRAaCTSC BAU Range Anxiety and Charging Time Shadow Cost</t>
-  </si>
-  <si>
-    <t>This variable represents the perceived cost of range anxiety - the fear (or inconvenience around) that</t>
-  </si>
-  <si>
-    <t>the vehicle has insufficient range to reach its destination.</t>
-  </si>
-  <si>
-    <t>Cost ($/vehicle)</t>
-  </si>
-  <si>
-    <t>addressed by fueling availability and range value</t>
-  </si>
-  <si>
-    <t>Ignored, because vast majority of charging can be done overnight and other concerns</t>
-  </si>
-  <si>
-    <t>Fueling time</t>
-  </si>
-  <si>
-    <t>y = 220.9751 + 7258.141*e^(-28.95171*x)</t>
-  </si>
-  <si>
-    <t>Fueling Availability</t>
-  </si>
-  <si>
-    <t>income (thousand USD)</t>
-  </si>
-  <si>
-    <t>range ev (hundred miles)</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>Range Compensating Value</t>
-  </si>
-  <si>
-    <t>cv (thousand USD)</t>
-  </si>
-  <si>
-    <t>https://www.census.gov/library/publications/2020/demo/p60-270.html</t>
-  </si>
-  <si>
-    <t>Median US Income</t>
-  </si>
-  <si>
-    <t>United States Census Bureau</t>
-  </si>
-  <si>
-    <t>Income and Poverty in the United States: 2019</t>
-  </si>
-  <si>
-    <t>First bullet of "Highlights"</t>
-  </si>
-  <si>
-    <t>2019 to 2012 USD</t>
-  </si>
-  <si>
-    <t>Range and Fueling Availability 'Costs'</t>
-  </si>
-  <si>
-    <t>US Department of Energy</t>
-  </si>
-  <si>
-    <t>https://www.nrel.gov/docs/fy13osti/55639.pdf</t>
-  </si>
-  <si>
-    <t>Number of gas pumps</t>
-  </si>
-  <si>
-    <t>Ratio of EVSE ports:Gas pumps</t>
-  </si>
-  <si>
-    <t>Corresponding Fueling Availbility Shadow Cost</t>
-  </si>
-  <si>
-    <t>Number of Gas pumps</t>
-  </si>
-  <si>
-    <t>CleanTechnica</t>
-  </si>
-  <si>
-    <t>Stop Comparing the Number of Gas Stations to EV Charging Stations</t>
-  </si>
-  <si>
-    <t>Number of EVSE Ports</t>
-  </si>
-  <si>
-    <t>Alternative Fuels Data Center</t>
-  </si>
-  <si>
-    <t>Electric Vehicle Charging Station Locations</t>
-  </si>
-  <si>
-    <t>https://afdc.energy.gov/fuels/electricity_locations.html#/analyze?fuel=ELEC</t>
-  </si>
-  <si>
-    <t>https://cleantechnica.com/2018/03/07/stop-comparing-number-gas-stations-ev-charging-stations/</t>
-  </si>
-  <si>
-    <t>Gasoline vehicle range</t>
-  </si>
-  <si>
-    <t>All-Electric Vehicle Ranges Can Exceed Those of Some Gasoline Vehicles</t>
-  </si>
-  <si>
-    <t>https://www.energy.gov/eere/vehicles/fact-939-august-22-2016-all-electric-vehicle-ranges-can-exceed-those-some-gasoline</t>
-  </si>
-  <si>
-    <t>First Figure</t>
-  </si>
-  <si>
-    <t>median range ice (hundred miles)</t>
-  </si>
-  <si>
-    <t>Inside Evs</t>
-  </si>
-  <si>
-    <t>The Median Range of Fully Electric Vehicles Exceeded 250 Miles in 2020</t>
-  </si>
-  <si>
-    <t>https://insideevs.com/news/464449/median-range-evs-2020-exceeded-250-miles/</t>
-  </si>
-  <si>
-    <t>EV range</t>
-  </si>
-  <si>
-    <t>In the US, we use a DOE study to calculate a Range Compensating Value and a Fuel Availability Value.</t>
-  </si>
-  <si>
-    <t>The Range Compensating Value uses parameters from the DOE study, the median household income,</t>
-  </si>
-  <si>
-    <t>and the median ranges of ICE and EV vehicles. For EV vehicles, the current median range has already surpassed</t>
-  </si>
-  <si>
-    <t>The Fuel Availability Value uses parameters from the DOE study and a comparison of the number of</t>
-  </si>
-  <si>
-    <t>Currency Conversion</t>
-  </si>
-  <si>
-    <t>Calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250 miles and is forecated to continue improving. Therefore, we start with today's median range, and assume </t>
-  </si>
-  <si>
-    <t>the range will reach 300 miles by 2050.</t>
-  </si>
-  <si>
-    <t>EV charging ports and gas pumps. We also assume this value will decline to 0 by 2050 as more EV chargers come online.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*2020 median range taken from historical data. 2030 and 2050 are estimated, with the 2050 </t>
-  </si>
-  <si>
-    <t>range roughly corresponding to today's maximum range</t>
-  </si>
-  <si>
-    <t>We assume EV charger additions based on investments in the Infrastructure Investment and Jobs Act</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total government funding: </t>
-  </si>
-  <si>
-    <t>($7.5 billion between 2022 and 2026), assuming 80% of the costs are paid for by the government.</t>
-  </si>
-  <si>
-    <t>Total government + private funding:</t>
-  </si>
-  <si>
-    <t>Average weighted charger cost (see trans/EVCC):</t>
-  </si>
-  <si>
-    <t>Chargers added by 2026:</t>
-  </si>
-  <si>
-    <t>2020 EVSE ports:</t>
   </si>
 </sst>
 </file>
@@ -274,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,22 +269,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -330,11 +299,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -342,20 +310,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,47 +419,11 @@
             </c:spPr>
             <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.8828958880139982E-2"/>
-                  <c:y val="-0.13703885898644008"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Calculations!$A$17:$A$20</c:f>
+              <c:f>Calculations!$A$16:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -519,7 +444,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calculations!$B$17:$B$20</c:f>
+              <c:f>Calculations!$B$16:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1300,7 +1225,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1596,316 +1521,313 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+    <row r="5" spans="1:2">
+      <c r="B5" s="7">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="7">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="7">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>25</v>
       </c>
       <c r="B53">
         <v>0.89805481563188172</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{14EF0A86-0973-41E2-9D23-51C96C77958E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341A17B3-AFD9-42DA-AB68-E46FC6CF1D40}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>-0.36099999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>1.268</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2020</v>
-      </c>
-      <c r="C7">
-        <v>2030</v>
-      </c>
-      <c r="D7">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>4.12</v>
@@ -1918,231 +1840,176 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2.59</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9">
         <v>4.12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>68.703000000000003</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <f>income</f>
         <v>68.703000000000003</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10">
         <f>B10</f>
         <v>68.703000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="5">
+        <f>($B$4/$B$2*B9*(1-B8/B9)+$B$5/$B$2*B9^2*(1-B8^2/B9^2))*LN(income)</f>
+        <v>8.7776895901028578</v>
+      </c>
+      <c r="C13" s="5">
+        <f>($B$4/$B$2*C9*(1-C8/C9)+$B$5/$B$2*C9^2*(1-C8^2/C9^2))*LN(income)</f>
+        <v>5.8013729917508945</v>
+      </c>
+      <c r="D13" s="5">
+        <f>($B$4/$B$2*D9*(1-D8/D9)+$B$5/$B$2*D9^2*(1-D8^2/D9^2))*LN(income)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="B17">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>120045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <f>B23/B24</f>
+        <v>0.1000375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <f>B18</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="6">
-        <f>($B$4/$B$2*B9*(1-B8/B9)+$B$5/$B$2*B9^2*(1-B8^2/B9^2))*LN(income)*About!$B$53</f>
-        <v>7.8828464065137096</v>
-      </c>
-      <c r="C14" s="6">
-        <f>($B$4/$B$2*C9*(1-C8/C9)+$B$5/$B$2*C9^2*(1-C8^2/C9^2))*LN(income)*About!$B$53</f>
-        <v>5.2099509525186276</v>
-      </c>
-      <c r="D14" s="6">
-        <f>($B$4/$B$2*D9*(1-D8/D9)+$B$5/$B$2*D9^2*(1-D8^2/D9^2))*LN(income)*About!$B$53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B17">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="B18">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="B19">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>2020</v>
+      </c>
+      <c r="B33">
+        <f>B13*1000+B26</f>
+        <v>9777.6895901028583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>2030</v>
+      </c>
+      <c r="B34">
+        <f>C13*1000+B26</f>
+        <v>6801.3729917508945</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>2050</v>
+      </c>
+      <c r="B35">
+        <f>D13*1000+B26</f>
         <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24">
-        <v>120045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>2020</v>
-      </c>
-      <c r="C27">
-        <v>2027</v>
-      </c>
-      <c r="D27">
-        <v>2030</v>
-      </c>
-      <c r="E27">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <f>B24/B25</f>
-        <v>0.1000375</v>
-      </c>
-      <c r="C28">
-        <f>(B24+'EV charger assumptions'!B9)/Calculations!B25</f>
-        <v>0.41965865943214825</v>
-      </c>
-      <c r="D28">
-        <f>(E28-C28)/(E27-C27)*3+C28</f>
-        <v>0.495355356027955</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <f>B19*About!$B$53</f>
-        <v>898.05481563188175</v>
-      </c>
-      <c r="C29">
-        <f>-667.1*LN(C28)-241.23</f>
-        <v>338.02201174921117</v>
-      </c>
-      <c r="D29">
-        <f>-667.1*LN(D28)-241.23</f>
-        <v>227.39432995486422</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2020</v>
-      </c>
-      <c r="B36">
-        <f>B14*1000+B29</f>
-        <v>8780.9012221455905</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2027</v>
-      </c>
-      <c r="B37" cm="1">
-        <f t="array" ref="B37">TREND(B14:C14,B7:C7,C27)*1000+C29</f>
-        <v>6349.8416004663277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2030</v>
-      </c>
-      <c r="B38">
-        <f>C14*1000+D29</f>
-        <v>5437.3452824734923</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2050</v>
-      </c>
-      <c r="B39">
-        <f>D14*1000+E29</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2153,313 +2020,542 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D98A39-3A78-451F-9516-0CF8624C92E2}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:35">
+      <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E1">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2022</v>
+      </c>
+      <c r="G1">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2024</v>
+      </c>
+      <c r="I1">
+        <v>2025</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2026</v>
+      </c>
+      <c r="K1">
+        <v>2027</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2028</v>
+      </c>
+      <c r="M1">
+        <v>2029</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2030</v>
+      </c>
+      <c r="O1">
+        <v>2031</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2032</v>
+      </c>
+      <c r="Q1">
+        <v>2033</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2034</v>
+      </c>
+      <c r="S1">
+        <v>2035</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2036</v>
+      </c>
+      <c r="U1">
+        <v>2037</v>
+      </c>
+      <c r="V1" s="4">
+        <v>2038</v>
+      </c>
+      <c r="W1">
+        <v>2039</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2040</v>
+      </c>
+      <c r="Y1">
+        <v>2041</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>2042</v>
+      </c>
+      <c r="AA1">
+        <v>2043</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>2044</v>
+      </c>
+      <c r="AC1">
+        <v>2045</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>2046</v>
+      </c>
+      <c r="AE1">
+        <v>2047</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="AG1">
+        <v>2049</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B4">
-        <v>7500000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5">
-        <f>B4/0.8</f>
-        <v>9375000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7">
-        <v>24443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="3">
-        <f>B5/B7</f>
-        <v>383545.39131857792</v>
-      </c>
+      <c r="B2" s="3" cm="1">
+        <f t="array" ref="B2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!B1)</f>
+        <v>9777.6895901027601</v>
+      </c>
+      <c r="C2" s="3" cm="1">
+        <f t="array" ref="C2">TREND(D2:H2,D1:H1,C1)</f>
+        <v>10372.952909773216</v>
+      </c>
+      <c r="D2" s="3" cm="1">
+        <f t="array" ref="D2">TREND(E2:I2,E1:I1,D1)</f>
+        <v>10075.321249937988</v>
+      </c>
+      <c r="E2" s="3" cm="1">
+        <f t="array" ref="E2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!E1)</f>
+        <v>9480.0579302676488</v>
+      </c>
+      <c r="F2" s="3" cm="1">
+        <f t="array" ref="F2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!F1)</f>
+        <v>9182.426270432421</v>
+      </c>
+      <c r="G2" s="3" cm="1">
+        <f t="array" ref="G2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!G1)</f>
+        <v>8884.7946105971932</v>
+      </c>
+      <c r="H2" s="3" cm="1">
+        <f t="array" ref="H2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!H1)</f>
+        <v>8587.1629507620819</v>
+      </c>
+      <c r="I2" s="3" cm="1">
+        <f t="array" ref="I2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!I1)</f>
+        <v>8289.5312909268541</v>
+      </c>
+      <c r="J2" s="3" cm="1">
+        <f t="array" ref="J2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!J1)</f>
+        <v>7991.8996310916264</v>
+      </c>
+      <c r="K2" s="3" cm="1">
+        <f t="array" ref="K2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!K1)</f>
+        <v>7694.2679712563986</v>
+      </c>
+      <c r="L2" s="3" cm="1">
+        <f t="array" ref="L2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!L1)</f>
+        <v>7396.6363114212872</v>
+      </c>
+      <c r="M2" s="3" cm="1">
+        <f t="array" ref="M2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!M1)</f>
+        <v>7099.0046515860595</v>
+      </c>
+      <c r="N2" s="3" cm="1">
+        <f t="array" ref="N2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!N1)</f>
+        <v>6801.3729917508317</v>
+      </c>
+      <c r="O2" s="3" cm="1">
+        <f t="array" ref="O2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!O1)</f>
+        <v>6511.3043421633774</v>
+      </c>
+      <c r="P2" s="3" cm="1">
+        <f t="array" ref="P2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!P1)</f>
+        <v>6221.2356925758068</v>
+      </c>
+      <c r="Q2" s="3" cm="1">
+        <f t="array" ref="Q2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Q1)</f>
+        <v>5931.1670429883525</v>
+      </c>
+      <c r="R2" s="3" cm="1">
+        <f t="array" ref="R2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!R1)</f>
+        <v>5641.0983934007818</v>
+      </c>
+      <c r="S2" s="3" cm="1">
+        <f t="array" ref="S2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!S1)</f>
+        <v>5351.0297438132111</v>
+      </c>
+      <c r="T2" s="3" cm="1">
+        <f t="array" ref="T2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!T1)</f>
+        <v>5060.9610942256404</v>
+      </c>
+      <c r="U2" s="3" cm="1">
+        <f t="array" ref="U2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!U1)</f>
+        <v>4770.8924446381861</v>
+      </c>
+      <c r="V2" s="3" cm="1">
+        <f t="array" ref="V2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!V1)</f>
+        <v>4480.8237950506154</v>
+      </c>
+      <c r="W2" s="3" cm="1">
+        <f t="array" ref="W2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!W1)</f>
+        <v>4190.7551454630448</v>
+      </c>
+      <c r="X2" s="3" cm="1">
+        <f t="array" ref="X2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!X1)</f>
+        <v>3900.6864958754741</v>
+      </c>
+      <c r="Y2" s="3" cm="1">
+        <f t="array" ref="Y2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Y1)</f>
+        <v>3610.6178462879034</v>
+      </c>
+      <c r="Z2" s="3" cm="1">
+        <f t="array" ref="Z2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Z1)</f>
+        <v>3320.5491967004491</v>
+      </c>
+      <c r="AA2" s="3" cm="1">
+        <f t="array" ref="AA2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AA1)</f>
+        <v>3030.4805471128784</v>
+      </c>
+      <c r="AB2" s="3" cm="1">
+        <f t="array" ref="AB2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AB1)</f>
+        <v>2740.4118975253077</v>
+      </c>
+      <c r="AC2" s="3" cm="1">
+        <f t="array" ref="AC2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AC1)</f>
+        <v>2450.343247937737</v>
+      </c>
+      <c r="AD2" s="3" cm="1">
+        <f t="array" ref="AD2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AD1)</f>
+        <v>2160.2745983502828</v>
+      </c>
+      <c r="AE2" s="3" cm="1">
+        <f t="array" ref="AE2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AE1)</f>
+        <v>1870.2059487627121</v>
+      </c>
+      <c r="AF2" s="3" cm="1">
+        <f t="array" ref="AF2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AF1)</f>
+        <v>1580.1372991751414</v>
+      </c>
+      <c r="AG2" s="3" cm="1">
+        <f t="array" ref="AG2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AG1)</f>
+        <v>1290.0686495875707</v>
+      </c>
+      <c r="AH2" s="3" cm="1">
+        <f t="array" ref="AH2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AH1)</f>
+        <v>1000</v>
+      </c>
+      <c r="AI2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:AG2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C1">
-        <v>2021</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E1">
-        <v>2023</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2024</v>
-      </c>
-      <c r="G1">
-        <v>2025</v>
-      </c>
-      <c r="H1" s="4">
-        <v>2026</v>
-      </c>
-      <c r="I1">
-        <v>2027</v>
-      </c>
-      <c r="J1" s="4">
-        <v>2028</v>
-      </c>
-      <c r="K1">
-        <v>2029</v>
-      </c>
-      <c r="L1" s="4">
-        <v>2030</v>
-      </c>
-      <c r="M1">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2032</v>
-      </c>
-      <c r="O1">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="4">
-        <v>2034</v>
-      </c>
-      <c r="Q1">
-        <v>2035</v>
-      </c>
-      <c r="R1" s="4">
-        <v>2036</v>
-      </c>
-      <c r="S1">
-        <v>2037</v>
-      </c>
-      <c r="T1" s="4">
-        <v>2038</v>
-      </c>
-      <c r="U1">
-        <v>2039</v>
-      </c>
-      <c r="V1" s="4">
-        <v>2040</v>
-      </c>
-      <c r="W1">
-        <v>2041</v>
-      </c>
-      <c r="X1" s="4">
-        <v>2042</v>
-      </c>
-      <c r="Y1">
-        <v>2043</v>
-      </c>
-      <c r="Z1" s="4">
-        <v>2044</v>
-      </c>
-      <c r="AA1">
-        <v>2045</v>
-      </c>
-      <c r="AB1" s="4">
-        <v>2046</v>
-      </c>
-      <c r="AC1">
-        <v>2047</v>
-      </c>
-      <c r="AD1" s="4">
-        <v>2048</v>
-      </c>
-      <c r="AE1">
-        <v>2049</v>
-      </c>
-      <c r="AF1" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" cm="1">
-        <f t="array" ref="B2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!B1)</f>
-        <v>8780.9012221456505</v>
-      </c>
-      <c r="C2" s="3" cm="1">
-        <f t="array" ref="C2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!C1)</f>
-        <v>8433.6069904771866</v>
-      </c>
-      <c r="D2" s="3" cm="1">
-        <f t="array" ref="D2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!D1)</f>
-        <v>8086.3127588086063</v>
-      </c>
-      <c r="E2" s="3" cm="1">
-        <f t="array" ref="E2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!E1)</f>
-        <v>7739.0185271401424</v>
-      </c>
-      <c r="F2" s="3" cm="1">
-        <f t="array" ref="F2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!F1)</f>
-        <v>7391.7242954716785</v>
-      </c>
-      <c r="G2" s="3" cm="1">
-        <f t="array" ref="G2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!G1)</f>
-        <v>7044.4300638032146</v>
-      </c>
-      <c r="H2" s="3" cm="1">
-        <f t="array" ref="H2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!H1)</f>
-        <v>6697.1358321347507</v>
-      </c>
-      <c r="I2" s="3" cm="1">
-        <f t="array" ref="I2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!I1)</f>
-        <v>6349.8416004662868</v>
-      </c>
-      <c r="J2" s="3" cm="1">
-        <f t="array" ref="J2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!J1)</f>
-        <v>6045.6761611354304</v>
-      </c>
-      <c r="K2" s="3" cm="1">
-        <f t="array" ref="K2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!K1)</f>
-        <v>5741.5107218045741</v>
-      </c>
-      <c r="L2" s="3" cm="1">
-        <f t="array" ref="L2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!L1)</f>
-        <v>5437.3452824736014</v>
-      </c>
-      <c r="M2" s="3" cm="1">
-        <f t="array" ref="M2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!M1)</f>
-        <v>5165.4780183498515</v>
-      </c>
-      <c r="N2" s="3" cm="1">
-        <f t="array" ref="N2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!N1)</f>
-        <v>4893.610754226218</v>
-      </c>
-      <c r="O2" s="3" cm="1">
-        <f t="array" ref="O2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!O1)</f>
-        <v>4621.7434901024681</v>
-      </c>
-      <c r="P2" s="3" cm="1">
-        <f t="array" ref="P2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!P1)</f>
-        <v>4349.8762259788346</v>
-      </c>
-      <c r="Q2" s="3" cm="1">
-        <f t="array" ref="Q2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Q1)</f>
-        <v>4078.0089618552011</v>
-      </c>
-      <c r="R2" s="3" cm="1">
-        <f t="array" ref="R2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!R1)</f>
-        <v>3806.1416977314511</v>
-      </c>
-      <c r="S2" s="3" cm="1">
-        <f t="array" ref="S2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!S1)</f>
-        <v>3534.2744336078176</v>
-      </c>
-      <c r="T2" s="3" cm="1">
-        <f t="array" ref="T2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!T1)</f>
-        <v>3262.4071694841841</v>
-      </c>
-      <c r="U2" s="3" cm="1">
-        <f t="array" ref="U2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!U1)</f>
-        <v>2990.5399053604342</v>
-      </c>
-      <c r="V2" s="3" cm="1">
-        <f t="array" ref="V2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!V1)</f>
-        <v>2718.6726412368007</v>
-      </c>
-      <c r="W2" s="3" cm="1">
-        <f t="array" ref="W2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!W1)</f>
-        <v>2446.8053771130508</v>
-      </c>
-      <c r="X2" s="3" cm="1">
-        <f t="array" ref="X2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!X1)</f>
-        <v>2174.9381129894173</v>
-      </c>
-      <c r="Y2" s="3" cm="1">
-        <f t="array" ref="Y2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Y1)</f>
-        <v>1903.0708488657838</v>
-      </c>
-      <c r="Z2" s="3" cm="1">
-        <f t="array" ref="Z2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Z1)</f>
-        <v>1631.2035847420339</v>
-      </c>
-      <c r="AA2" s="3" cm="1">
-        <f t="array" ref="AA2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AA1)</f>
-        <v>1359.3363206184004</v>
-      </c>
-      <c r="AB2" s="3" cm="1">
-        <f t="array" ref="AB2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AB1)</f>
-        <v>1087.4690564947668</v>
-      </c>
-      <c r="AC2" s="3" cm="1">
-        <f t="array" ref="AC2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AC1)</f>
-        <v>815.60179237101693</v>
-      </c>
-      <c r="AD2" s="3" cm="1">
-        <f t="array" ref="AD2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AD1)</f>
-        <v>543.73452824738342</v>
-      </c>
-      <c r="AE2" s="3" cm="1">
-        <f t="array" ref="AE2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AE1)</f>
-        <v>271.86726412374992</v>
-      </c>
-      <c r="AF2" s="3" cm="1">
-        <f t="array" ref="AF2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AF1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46A52D7-DB8F-4B82-AC10-C8C125CE2827}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E26F15-6A12-499B-9D28-5F7ED7789135}"/>
 </file>
--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\trans\BRAaCTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/BRAaCTSC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E3DA3E91-76B2-4E00-B280-A24BBC976430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34B0EDE7-2334-402C-8571-BE058B142D42}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E3DA3E91-76B2-4E00-B280-A24BBC976430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{408EE160-E135-40AB-9532-662C8807C098}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1525,18 +1525,18 @@
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1544,216 +1544,216 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>2016</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -1770,22 +1770,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341A17B3-AFD9-42DA-AB68-E46FC6CF1D40}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1793,12 +1793,12 @@
         <v>-0.36099999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>1.268</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>68.703000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1887,12 +1887,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>0.05</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>0.1</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -1924,12 +1924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>120045</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0.1000375</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1963,29 +1963,29 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2020</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>9777.6895901028583</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2030</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>6801.3729917508945</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2050</v>
       </c>
@@ -2027,27 +2027,27 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="4">
         <v>2020</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2018</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2019</v>
       </c>
       <c r="E1">
         <v>2021</v>
@@ -2140,21 +2140,21 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="3" cm="1">
-        <f t="array" ref="B2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!B1)</f>
+        <f t="array" ref="B2">TREND(C2:H2,C1:H1,B1)</f>
+        <v>10372.952909773099</v>
+      </c>
+      <c r="C2" s="3" cm="1">
+        <f t="array" ref="C2">TREND(D2:I2,D1:I1,C1)</f>
+        <v>10075.321249937988</v>
+      </c>
+      <c r="D2" s="3" cm="1">
+        <f t="array" ref="D2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!D1)</f>
         <v>9777.6895901027601</v>
-      </c>
-      <c r="C2" s="3" cm="1">
-        <f t="array" ref="C2">TREND(D2:H2,D1:H1,C1)</f>
-        <v>10372.952909773216</v>
-      </c>
-      <c r="D2" s="3" cm="1">
-        <f t="array" ref="D2">TREND(E2:I2,E1:I1,D1)</f>
-        <v>10075.321249937988</v>
       </c>
       <c r="E2" s="3" cm="1">
         <f t="array" ref="E2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!E1)</f>
@@ -2553,9 +2553,29 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46A52D7-DB8F-4B82-AC10-C8C125CE2827}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46A52D7-DB8F-4B82-AC10-C8C125CE2827}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E26F15-6A12-499B-9D28-5F7ED7789135}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E26F15-6A12-499B-9D28-5F7ED7789135}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BRAaCTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/BRAaCTSC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC02F20B-346B-4E17-A776-81D370EAD24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E3DA3E91-76B2-4E00-B280-A24BBC976430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{408EE160-E135-40AB-9532-662C8807C098}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="4" r:id="rId2"/>
-    <sheet name="EV charger assumptions" sheetId="5" r:id="rId3"/>
-    <sheet name="BRAaCTSC" sheetId="3" r:id="rId4"/>
+    <sheet name="BRAaCTSC" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="income">Calculations!$B$10</definedName>
     <definedName name="Range_EV">Calculations!$B$9</definedName>
     <definedName name="range_ICE">Calculations!$B$8</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -64,207 +64,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+  <si>
+    <t>BRAaCTSC BAU Range Anxiety and Charging Time Shadow Cost</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>Median US Income</t>
+  </si>
+  <si>
+    <t>United States Census Bureau</t>
+  </si>
+  <si>
+    <t>Income and Poverty in the United States: 2019</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/library/publications/2020/demo/p60-270.html</t>
+  </si>
+  <si>
+    <t>First bullet of "Highlights"</t>
+  </si>
+  <si>
+    <t>Range and Fueling Availability 'Costs'</t>
+  </si>
+  <si>
+    <t>US Department of Energy</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy13osti/55639.pdf</t>
+  </si>
+  <si>
+    <t>Number of Gas pumps</t>
+  </si>
+  <si>
+    <t>CleanTechnica</t>
+  </si>
+  <si>
+    <t>Stop Comparing the Number of Gas Stations to EV Charging Stations</t>
+  </si>
+  <si>
+    <t>https://cleantechnica.com/2018/03/07/stop-comparing-number-gas-stations-ev-charging-stations/</t>
+  </si>
+  <si>
+    <t>Number of EVSE Ports</t>
+  </si>
+  <si>
+    <t>Alternative Fuels Data Center</t>
+  </si>
+  <si>
+    <t>Electric Vehicle Charging Station Locations</t>
+  </si>
+  <si>
+    <t>https://afdc.energy.gov/fuels/electricity_locations.html#/analyze?fuel=ELEC</t>
+  </si>
+  <si>
+    <t>Gasoline vehicle range</t>
+  </si>
+  <si>
+    <t>All-Electric Vehicle Ranges Can Exceed Those of Some Gasoline Vehicles</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/eere/vehicles/fact-939-august-22-2016-all-electric-vehicle-ranges-can-exceed-those-some-gasoline</t>
+  </si>
+  <si>
+    <t>First Figure</t>
+  </si>
+  <si>
+    <t>EV range</t>
+  </si>
+  <si>
+    <t>Inside Evs</t>
+  </si>
+  <si>
+    <t>The Median Range of Fully Electric Vehicles Exceeded 250 Miles in 2020</t>
+  </si>
+  <si>
+    <t>https://insideevs.com/news/464449/median-range-evs-2020-exceeded-250-miles/</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>This variable represents the perceived cost of range anxiety - the fear (or inconvenience around) that</t>
+  </si>
+  <si>
+    <t>the vehicle has insufficient range to reach its destination.</t>
+  </si>
+  <si>
+    <t>In the US, we use a DOE study to calculate a Range Compensating Value and a Fuel Availability Value.</t>
+  </si>
+  <si>
+    <t>The Range Compensating Value uses parameters from the DOE study, the median household income,</t>
+  </si>
+  <si>
+    <t>and the median ranges of ICE and EV vehicles. For EV vehicles, the current median range has already surpassed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250 miles and is forecated to continue improving. Therefore, we start with today's median range, and assume </t>
+  </si>
+  <si>
+    <t>the range will reach 300 miles by 2050.</t>
+  </si>
+  <si>
+    <t>The Fuel Availability Value uses parameters from the DOE study and a comparison of the number of</t>
+  </si>
+  <si>
+    <t>EV charging ports and gas pumps. We also assume this value will decline to 0 by 2050 as more EV chargers come online.</t>
+  </si>
+  <si>
+    <t>Currency Conversion</t>
+  </si>
+  <si>
+    <t>2019 to 2012 USD</t>
+  </si>
+  <si>
+    <t>Range Compensating Value</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>Year 2020</t>
+  </si>
+  <si>
+    <t>Year 2030</t>
+  </si>
+  <si>
+    <t>Year 2050</t>
+  </si>
+  <si>
+    <t>median range ice (hundred miles)</t>
+  </si>
+  <si>
+    <t>range ev (hundred miles)</t>
+  </si>
+  <si>
+    <t>income (thousand USD)</t>
+  </si>
+  <si>
+    <t>cv (thousand USD)</t>
+  </si>
+  <si>
+    <t>Fueling Availability</t>
+  </si>
+  <si>
+    <t>y = 220.9751 + 7258.141*e^(-28.95171*x)</t>
+  </si>
+  <si>
+    <t>EVSE ports:</t>
+  </si>
+  <si>
+    <t>Number of gas pumps</t>
+  </si>
+  <si>
+    <t>Ratio of EVSE ports:Gas pumps</t>
+  </si>
+  <si>
+    <t>Corresponding Fueling Availbility Shadow Cost</t>
+  </si>
+  <si>
+    <t>Fueling time</t>
+  </si>
+  <si>
+    <t>Ignored, because vast majority of charging can be done overnight and other concerns</t>
+  </si>
+  <si>
+    <t>addressed by fueling availability and range value</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Cost ($/vehicle)</t>
+  </si>
+  <si>
     <t>Shadow cost</t>
-  </si>
-  <si>
-    <t>BRAaCTSC BAU Range Anxiety and Charging Time Shadow Cost</t>
-  </si>
-  <si>
-    <t>This variable represents the perceived cost of range anxiety - the fear (or inconvenience around) that</t>
-  </si>
-  <si>
-    <t>the vehicle has insufficient range to reach its destination.</t>
-  </si>
-  <si>
-    <t>Cost ($/vehicle)</t>
-  </si>
-  <si>
-    <t>addressed by fueling availability and range value</t>
-  </si>
-  <si>
-    <t>Ignored, because vast majority of charging can be done overnight and other concerns</t>
-  </si>
-  <si>
-    <t>Fueling time</t>
-  </si>
-  <si>
-    <t>y = 220.9751 + 7258.141*e^(-28.95171*x)</t>
-  </si>
-  <si>
-    <t>Fueling Availability</t>
-  </si>
-  <si>
-    <t>income (thousand USD)</t>
-  </si>
-  <si>
-    <t>range ev (hundred miles)</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>Range Compensating Value</t>
-  </si>
-  <si>
-    <t>cv (thousand USD)</t>
-  </si>
-  <si>
-    <t>https://www.census.gov/library/publications/2020/demo/p60-270.html</t>
-  </si>
-  <si>
-    <t>Median US Income</t>
-  </si>
-  <si>
-    <t>United States Census Bureau</t>
-  </si>
-  <si>
-    <t>Income and Poverty in the United States: 2019</t>
-  </si>
-  <si>
-    <t>First bullet of "Highlights"</t>
-  </si>
-  <si>
-    <t>2019 to 2012 USD</t>
-  </si>
-  <si>
-    <t>Range and Fueling Availability 'Costs'</t>
-  </si>
-  <si>
-    <t>US Department of Energy</t>
-  </si>
-  <si>
-    <t>https://www.nrel.gov/docs/fy13osti/55639.pdf</t>
-  </si>
-  <si>
-    <t>Number of gas pumps</t>
-  </si>
-  <si>
-    <t>Ratio of EVSE ports:Gas pumps</t>
-  </si>
-  <si>
-    <t>Corresponding Fueling Availbility Shadow Cost</t>
-  </si>
-  <si>
-    <t>Number of Gas pumps</t>
-  </si>
-  <si>
-    <t>CleanTechnica</t>
-  </si>
-  <si>
-    <t>Stop Comparing the Number of Gas Stations to EV Charging Stations</t>
-  </si>
-  <si>
-    <t>Number of EVSE Ports</t>
-  </si>
-  <si>
-    <t>Alternative Fuels Data Center</t>
-  </si>
-  <si>
-    <t>Electric Vehicle Charging Station Locations</t>
-  </si>
-  <si>
-    <t>https://afdc.energy.gov/fuels/electricity_locations.html#/analyze?fuel=ELEC</t>
-  </si>
-  <si>
-    <t>https://cleantechnica.com/2018/03/07/stop-comparing-number-gas-stations-ev-charging-stations/</t>
-  </si>
-  <si>
-    <t>Gasoline vehicle range</t>
-  </si>
-  <si>
-    <t>All-Electric Vehicle Ranges Can Exceed Those of Some Gasoline Vehicles</t>
-  </si>
-  <si>
-    <t>https://www.energy.gov/eere/vehicles/fact-939-august-22-2016-all-electric-vehicle-ranges-can-exceed-those-some-gasoline</t>
-  </si>
-  <si>
-    <t>First Figure</t>
-  </si>
-  <si>
-    <t>median range ice (hundred miles)</t>
-  </si>
-  <si>
-    <t>Inside Evs</t>
-  </si>
-  <si>
-    <t>The Median Range of Fully Electric Vehicles Exceeded 250 Miles in 2020</t>
-  </si>
-  <si>
-    <t>https://insideevs.com/news/464449/median-range-evs-2020-exceeded-250-miles/</t>
-  </si>
-  <si>
-    <t>EV range</t>
-  </si>
-  <si>
-    <t>In the US, we use a DOE study to calculate a Range Compensating Value and a Fuel Availability Value.</t>
-  </si>
-  <si>
-    <t>The Range Compensating Value uses parameters from the DOE study, the median household income,</t>
-  </si>
-  <si>
-    <t>and the median ranges of ICE and EV vehicles. For EV vehicles, the current median range has already surpassed</t>
-  </si>
-  <si>
-    <t>The Fuel Availability Value uses parameters from the DOE study and a comparison of the number of</t>
-  </si>
-  <si>
-    <t>Currency Conversion</t>
-  </si>
-  <si>
-    <t>Calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250 miles and is forecated to continue improving. Therefore, we start with today's median range, and assume </t>
-  </si>
-  <si>
-    <t>the range will reach 300 miles by 2050.</t>
-  </si>
-  <si>
-    <t>EV charging ports and gas pumps. We also assume this value will decline to 0 by 2050 as more EV chargers come online.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*2020 median range taken from historical data. 2030 and 2050 are estimated, with the 2050 </t>
-  </si>
-  <si>
-    <t>range roughly corresponding to today's maximum range</t>
-  </si>
-  <si>
-    <t>We assume EV charger additions based on investments in the Infrastructure Investment and Jobs Act</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total government funding: </t>
-  </si>
-  <si>
-    <t>($7.5 billion between 2022 and 2026), assuming 80% of the costs are paid for by the government.</t>
-  </si>
-  <si>
-    <t>Total government + private funding:</t>
-  </si>
-  <si>
-    <t>Average weighted charger cost (see trans/EVCC):</t>
-  </si>
-  <si>
-    <t>Chargers added by 2026:</t>
-  </si>
-  <si>
-    <t>2020 EVSE ports:</t>
   </si>
 </sst>
 </file>
@@ -274,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,22 +269,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -330,11 +299,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -342,20 +310,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,47 +419,11 @@
             </c:spPr>
             <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.8828958880139982E-2"/>
-                  <c:y val="-0.13703885898644008"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Calculations!$A$17:$A$20</c:f>
+              <c:f>Calculations!$A$16:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -519,7 +444,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calculations!$B$17:$B$20</c:f>
+              <c:f>Calculations!$B$16:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1300,7 +1225,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1596,316 +1521,313 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>25</v>
       </c>
       <c r="B53">
         <v>0.89805481563188172</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{14EF0A86-0973-41E2-9D23-51C96C77958E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341A17B3-AFD9-42DA-AB68-E46FC6CF1D40}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>-0.36099999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>1.268</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2020</v>
-      </c>
-      <c r="C7">
-        <v>2030</v>
-      </c>
-      <c r="D7">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>4.12</v>
@@ -1918,231 +1840,176 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2.59</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9">
         <v>4.12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>68.703000000000003</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <f>income</f>
         <v>68.703000000000003</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10">
         <f>B10</f>
         <v>68.703000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="5">
+        <f>($B$4/$B$2*B9*(1-B8/B9)+$B$5/$B$2*B9^2*(1-B8^2/B9^2))*LN(income)</f>
+        <v>8.7776895901028578</v>
+      </c>
+      <c r="C13" s="5">
+        <f>($B$4/$B$2*C9*(1-C8/C9)+$B$5/$B$2*C9^2*(1-C8^2/C9^2))*LN(income)</f>
+        <v>5.8013729917508945</v>
+      </c>
+      <c r="D13" s="5">
+        <f>($B$4/$B$2*D9*(1-D8/D9)+$B$5/$B$2*D9^2*(1-D8^2/D9^2))*LN(income)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="B17">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>120045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <f>B23/B24</f>
+        <v>0.1000375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <f>B18</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="6">
-        <f>($B$4/$B$2*B9*(1-B8/B9)+$B$5/$B$2*B9^2*(1-B8^2/B9^2))*LN(income)*About!$B$53</f>
-        <v>7.8828464065137096</v>
-      </c>
-      <c r="C14" s="6">
-        <f>($B$4/$B$2*C9*(1-C8/C9)+$B$5/$B$2*C9^2*(1-C8^2/C9^2))*LN(income)*About!$B$53</f>
-        <v>5.2099509525186276</v>
-      </c>
-      <c r="D14" s="6">
-        <f>($B$4/$B$2*D9*(1-D8/D9)+$B$5/$B$2*D9^2*(1-D8^2/D9^2))*LN(income)*About!$B$53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B17">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="B18">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="B19">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2020</v>
+      </c>
+      <c r="B33">
+        <f>B13*1000+B26</f>
+        <v>9777.6895901028583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2030</v>
+      </c>
+      <c r="B34">
+        <f>C13*1000+B26</f>
+        <v>6801.3729917508945</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2050</v>
+      </c>
+      <c r="B35">
+        <f>D13*1000+B26</f>
         <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24">
-        <v>120045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>2020</v>
-      </c>
-      <c r="C27">
-        <v>2027</v>
-      </c>
-      <c r="D27">
-        <v>2030</v>
-      </c>
-      <c r="E27">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <f>B24/B25</f>
-        <v>0.1000375</v>
-      </c>
-      <c r="C28">
-        <f>(B24+'EV charger assumptions'!B9)/Calculations!B25</f>
-        <v>0.41965865943214825</v>
-      </c>
-      <c r="D28">
-        <f>(E28-C28)/(E27-C27)*3+C28</f>
-        <v>0.495355356027955</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <f>B19*About!$B$53</f>
-        <v>898.05481563188175</v>
-      </c>
-      <c r="C29">
-        <f>-667.1*LN(C28)-241.23</f>
-        <v>338.02201174921117</v>
-      </c>
-      <c r="D29">
-        <f>-667.1*LN(D28)-241.23</f>
-        <v>227.39432995486422</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2020</v>
-      </c>
-      <c r="B36">
-        <f>B14*1000+B29</f>
-        <v>8780.9012221455905</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2027</v>
-      </c>
-      <c r="B37" cm="1">
-        <f t="array" ref="B37">TREND(B14:C14,B7:C7,C27)*1000+C29</f>
-        <v>6349.8416004663277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2030</v>
-      </c>
-      <c r="B38">
-        <f>C14*1000+D29</f>
-        <v>5437.3452824734923</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2050</v>
-      </c>
-      <c r="B39">
-        <f>D14*1000+E29</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2153,313 +2020,562 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D98A39-3A78-451F-9516-0CF8624C92E2}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E1">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2022</v>
+      </c>
+      <c r="G1">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2024</v>
+      </c>
+      <c r="I1">
+        <v>2025</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2026</v>
+      </c>
+      <c r="K1">
+        <v>2027</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2028</v>
+      </c>
+      <c r="M1">
+        <v>2029</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2030</v>
+      </c>
+      <c r="O1">
+        <v>2031</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2032</v>
+      </c>
+      <c r="Q1">
+        <v>2033</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2034</v>
+      </c>
+      <c r="S1">
+        <v>2035</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2036</v>
+      </c>
+      <c r="U1">
+        <v>2037</v>
+      </c>
+      <c r="V1" s="4">
+        <v>2038</v>
+      </c>
+      <c r="W1">
+        <v>2039</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2040</v>
+      </c>
+      <c r="Y1">
+        <v>2041</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>2042</v>
+      </c>
+      <c r="AA1">
+        <v>2043</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>2044</v>
+      </c>
+      <c r="AC1">
+        <v>2045</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>2046</v>
+      </c>
+      <c r="AE1">
+        <v>2047</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="AG1">
+        <v>2049</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B4">
-        <v>7500000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5">
-        <f>B4/0.8</f>
-        <v>9375000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7">
-        <v>24443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="3">
-        <f>B5/B7</f>
-        <v>383545.39131857792</v>
-      </c>
+      <c r="B2" s="3" cm="1">
+        <f t="array" ref="B2">TREND(C2:H2,C1:H1,B1)</f>
+        <v>10372.952909773099</v>
+      </c>
+      <c r="C2" s="3" cm="1">
+        <f t="array" ref="C2">TREND(D2:I2,D1:I1,C1)</f>
+        <v>10075.321249937988</v>
+      </c>
+      <c r="D2" s="3" cm="1">
+        <f t="array" ref="D2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!D1)</f>
+        <v>9777.6895901027601</v>
+      </c>
+      <c r="E2" s="3" cm="1">
+        <f t="array" ref="E2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!E1)</f>
+        <v>9480.0579302676488</v>
+      </c>
+      <c r="F2" s="3" cm="1">
+        <f t="array" ref="F2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!F1)</f>
+        <v>9182.426270432421</v>
+      </c>
+      <c r="G2" s="3" cm="1">
+        <f t="array" ref="G2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!G1)</f>
+        <v>8884.7946105971932</v>
+      </c>
+      <c r="H2" s="3" cm="1">
+        <f t="array" ref="H2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!H1)</f>
+        <v>8587.1629507620819</v>
+      </c>
+      <c r="I2" s="3" cm="1">
+        <f t="array" ref="I2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!I1)</f>
+        <v>8289.5312909268541</v>
+      </c>
+      <c r="J2" s="3" cm="1">
+        <f t="array" ref="J2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!J1)</f>
+        <v>7991.8996310916264</v>
+      </c>
+      <c r="K2" s="3" cm="1">
+        <f t="array" ref="K2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!K1)</f>
+        <v>7694.2679712563986</v>
+      </c>
+      <c r="L2" s="3" cm="1">
+        <f t="array" ref="L2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!L1)</f>
+        <v>7396.6363114212872</v>
+      </c>
+      <c r="M2" s="3" cm="1">
+        <f t="array" ref="M2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!M1)</f>
+        <v>7099.0046515860595</v>
+      </c>
+      <c r="N2" s="3" cm="1">
+        <f t="array" ref="N2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!N1)</f>
+        <v>6801.3729917508317</v>
+      </c>
+      <c r="O2" s="3" cm="1">
+        <f t="array" ref="O2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!O1)</f>
+        <v>6511.3043421633774</v>
+      </c>
+      <c r="P2" s="3" cm="1">
+        <f t="array" ref="P2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!P1)</f>
+        <v>6221.2356925758068</v>
+      </c>
+      <c r="Q2" s="3" cm="1">
+        <f t="array" ref="Q2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Q1)</f>
+        <v>5931.1670429883525</v>
+      </c>
+      <c r="R2" s="3" cm="1">
+        <f t="array" ref="R2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!R1)</f>
+        <v>5641.0983934007818</v>
+      </c>
+      <c r="S2" s="3" cm="1">
+        <f t="array" ref="S2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!S1)</f>
+        <v>5351.0297438132111</v>
+      </c>
+      <c r="T2" s="3" cm="1">
+        <f t="array" ref="T2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!T1)</f>
+        <v>5060.9610942256404</v>
+      </c>
+      <c r="U2" s="3" cm="1">
+        <f t="array" ref="U2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!U1)</f>
+        <v>4770.8924446381861</v>
+      </c>
+      <c r="V2" s="3" cm="1">
+        <f t="array" ref="V2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!V1)</f>
+        <v>4480.8237950506154</v>
+      </c>
+      <c r="W2" s="3" cm="1">
+        <f t="array" ref="W2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!W1)</f>
+        <v>4190.7551454630448</v>
+      </c>
+      <c r="X2" s="3" cm="1">
+        <f t="array" ref="X2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!X1)</f>
+        <v>3900.6864958754741</v>
+      </c>
+      <c r="Y2" s="3" cm="1">
+        <f t="array" ref="Y2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Y1)</f>
+        <v>3610.6178462879034</v>
+      </c>
+      <c r="Z2" s="3" cm="1">
+        <f t="array" ref="Z2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Z1)</f>
+        <v>3320.5491967004491</v>
+      </c>
+      <c r="AA2" s="3" cm="1">
+        <f t="array" ref="AA2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AA1)</f>
+        <v>3030.4805471128784</v>
+      </c>
+      <c r="AB2" s="3" cm="1">
+        <f t="array" ref="AB2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AB1)</f>
+        <v>2740.4118975253077</v>
+      </c>
+      <c r="AC2" s="3" cm="1">
+        <f t="array" ref="AC2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AC1)</f>
+        <v>2450.343247937737</v>
+      </c>
+      <c r="AD2" s="3" cm="1">
+        <f t="array" ref="AD2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AD1)</f>
+        <v>2160.2745983502828</v>
+      </c>
+      <c r="AE2" s="3" cm="1">
+        <f t="array" ref="AE2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AE1)</f>
+        <v>1870.2059487627121</v>
+      </c>
+      <c r="AF2" s="3" cm="1">
+        <f t="array" ref="AF2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AF1)</f>
+        <v>1580.1372991751414</v>
+      </c>
+      <c r="AG2" s="3" cm="1">
+        <f t="array" ref="AG2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AG1)</f>
+        <v>1290.0686495875707</v>
+      </c>
+      <c r="AH2" s="3" cm="1">
+        <f t="array" ref="AH2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AH1)</f>
+        <v>1000</v>
+      </c>
+      <c r="AI2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:AG2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C1">
-        <v>2021</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E1">
-        <v>2023</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2024</v>
-      </c>
-      <c r="G1">
-        <v>2025</v>
-      </c>
-      <c r="H1" s="4">
-        <v>2026</v>
-      </c>
-      <c r="I1">
-        <v>2027</v>
-      </c>
-      <c r="J1" s="4">
-        <v>2028</v>
-      </c>
-      <c r="K1">
-        <v>2029</v>
-      </c>
-      <c r="L1" s="4">
-        <v>2030</v>
-      </c>
-      <c r="M1">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2032</v>
-      </c>
-      <c r="O1">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="4">
-        <v>2034</v>
-      </c>
-      <c r="Q1">
-        <v>2035</v>
-      </c>
-      <c r="R1" s="4">
-        <v>2036</v>
-      </c>
-      <c r="S1">
-        <v>2037</v>
-      </c>
-      <c r="T1" s="4">
-        <v>2038</v>
-      </c>
-      <c r="U1">
-        <v>2039</v>
-      </c>
-      <c r="V1" s="4">
-        <v>2040</v>
-      </c>
-      <c r="W1">
-        <v>2041</v>
-      </c>
-      <c r="X1" s="4">
-        <v>2042</v>
-      </c>
-      <c r="Y1">
-        <v>2043</v>
-      </c>
-      <c r="Z1" s="4">
-        <v>2044</v>
-      </c>
-      <c r="AA1">
-        <v>2045</v>
-      </c>
-      <c r="AB1" s="4">
-        <v>2046</v>
-      </c>
-      <c r="AC1">
-        <v>2047</v>
-      </c>
-      <c r="AD1" s="4">
-        <v>2048</v>
-      </c>
-      <c r="AE1">
-        <v>2049</v>
-      </c>
-      <c r="AF1" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" cm="1">
-        <f t="array" ref="B2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!B1)</f>
-        <v>8780.9012221456505</v>
-      </c>
-      <c r="C2" s="3" cm="1">
-        <f t="array" ref="C2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!C1)</f>
-        <v>8433.6069904771866</v>
-      </c>
-      <c r="D2" s="3" cm="1">
-        <f t="array" ref="D2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!D1)</f>
-        <v>8086.3127588086063</v>
-      </c>
-      <c r="E2" s="3" cm="1">
-        <f t="array" ref="E2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!E1)</f>
-        <v>7739.0185271401424</v>
-      </c>
-      <c r="F2" s="3" cm="1">
-        <f t="array" ref="F2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!F1)</f>
-        <v>7391.7242954716785</v>
-      </c>
-      <c r="G2" s="3" cm="1">
-        <f t="array" ref="G2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!G1)</f>
-        <v>7044.4300638032146</v>
-      </c>
-      <c r="H2" s="3" cm="1">
-        <f t="array" ref="H2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!H1)</f>
-        <v>6697.1358321347507</v>
-      </c>
-      <c r="I2" s="3" cm="1">
-        <f t="array" ref="I2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!I1)</f>
-        <v>6349.8416004662868</v>
-      </c>
-      <c r="J2" s="3" cm="1">
-        <f t="array" ref="J2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!J1)</f>
-        <v>6045.6761611354304</v>
-      </c>
-      <c r="K2" s="3" cm="1">
-        <f t="array" ref="K2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!K1)</f>
-        <v>5741.5107218045741</v>
-      </c>
-      <c r="L2" s="3" cm="1">
-        <f t="array" ref="L2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!L1)</f>
-        <v>5437.3452824736014</v>
-      </c>
-      <c r="M2" s="3" cm="1">
-        <f t="array" ref="M2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!M1)</f>
-        <v>5165.4780183498515</v>
-      </c>
-      <c r="N2" s="3" cm="1">
-        <f t="array" ref="N2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!N1)</f>
-        <v>4893.610754226218</v>
-      </c>
-      <c r="O2" s="3" cm="1">
-        <f t="array" ref="O2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!O1)</f>
-        <v>4621.7434901024681</v>
-      </c>
-      <c r="P2" s="3" cm="1">
-        <f t="array" ref="P2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!P1)</f>
-        <v>4349.8762259788346</v>
-      </c>
-      <c r="Q2" s="3" cm="1">
-        <f t="array" ref="Q2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Q1)</f>
-        <v>4078.0089618552011</v>
-      </c>
-      <c r="R2" s="3" cm="1">
-        <f t="array" ref="R2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!R1)</f>
-        <v>3806.1416977314511</v>
-      </c>
-      <c r="S2" s="3" cm="1">
-        <f t="array" ref="S2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!S1)</f>
-        <v>3534.2744336078176</v>
-      </c>
-      <c r="T2" s="3" cm="1">
-        <f t="array" ref="T2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!T1)</f>
-        <v>3262.4071694841841</v>
-      </c>
-      <c r="U2" s="3" cm="1">
-        <f t="array" ref="U2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!U1)</f>
-        <v>2990.5399053604342</v>
-      </c>
-      <c r="V2" s="3" cm="1">
-        <f t="array" ref="V2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!V1)</f>
-        <v>2718.6726412368007</v>
-      </c>
-      <c r="W2" s="3" cm="1">
-        <f t="array" ref="W2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!W1)</f>
-        <v>2446.8053771130508</v>
-      </c>
-      <c r="X2" s="3" cm="1">
-        <f t="array" ref="X2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!X1)</f>
-        <v>2174.9381129894173</v>
-      </c>
-      <c r="Y2" s="3" cm="1">
-        <f t="array" ref="Y2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Y1)</f>
-        <v>1903.0708488657838</v>
-      </c>
-      <c r="Z2" s="3" cm="1">
-        <f t="array" ref="Z2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Z1)</f>
-        <v>1631.2035847420339</v>
-      </c>
-      <c r="AA2" s="3" cm="1">
-        <f t="array" ref="AA2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AA1)</f>
-        <v>1359.3363206184004</v>
-      </c>
-      <c r="AB2" s="3" cm="1">
-        <f t="array" ref="AB2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AB1)</f>
-        <v>1087.4690564947668</v>
-      </c>
-      <c r="AC2" s="3" cm="1">
-        <f t="array" ref="AC2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AC1)</f>
-        <v>815.60179237101693</v>
-      </c>
-      <c r="AD2" s="3" cm="1">
-        <f t="array" ref="AD2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AD1)</f>
-        <v>543.73452824738342</v>
-      </c>
-      <c r="AE2" s="3" cm="1">
-        <f t="array" ref="AE2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AE1)</f>
-        <v>271.86726412374992</v>
-      </c>
-      <c r="AF2" s="3" cm="1">
-        <f t="array" ref="AF2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AF1)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46A52D7-DB8F-4B82-AC10-C8C125CE2827}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E26F15-6A12-499B-9D28-5F7ED7789135}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/BRAaCTSC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BRAaCTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E3DA3E91-76B2-4E00-B280-A24BBC976430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{408EE160-E135-40AB-9532-662C8807C098}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC02F20B-346B-4E17-A776-81D370EAD24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="4" r:id="rId2"/>
-    <sheet name="BRAaCTSC" sheetId="3" r:id="rId3"/>
+    <sheet name="EV charger assumptions" sheetId="5" r:id="rId3"/>
+    <sheet name="BRAaCTSC" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="income">Calculations!$B$10</definedName>
     <definedName name="Range_EV">Calculations!$B$9</definedName>
     <definedName name="range_ICE">Calculations!$B$8</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -64,12 +64,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Shadow cost</t>
+  </si>
   <si>
     <t>BRAaCTSC BAU Range Anxiety and Charging Time Shadow Cost</t>
   </si>
   <si>
-    <t>Source:</t>
+    <t>This variable represents the perceived cost of range anxiety - the fear (or inconvenience around) that</t>
+  </si>
+  <si>
+    <t>the vehicle has insufficient range to reach its destination.</t>
+  </si>
+  <si>
+    <t>Cost ($/vehicle)</t>
+  </si>
+  <si>
+    <t>addressed by fueling availability and range value</t>
+  </si>
+  <si>
+    <t>Ignored, because vast majority of charging can be done overnight and other concerns</t>
+  </si>
+  <si>
+    <t>Fueling time</t>
+  </si>
+  <si>
+    <t>y = 220.9751 + 7258.141*e^(-28.95171*x)</t>
+  </si>
+  <si>
+    <t>Fueling Availability</t>
+  </si>
+  <si>
+    <t>income (thousand USD)</t>
+  </si>
+  <si>
+    <t>range ev (hundred miles)</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>Range Compensating Value</t>
+  </si>
+  <si>
+    <t>cv (thousand USD)</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/library/publications/2020/demo/p60-270.html</t>
   </si>
   <si>
     <t>Median US Income</t>
@@ -81,12 +138,12 @@
     <t>Income and Poverty in the United States: 2019</t>
   </si>
   <si>
-    <t>https://www.census.gov/library/publications/2020/demo/p60-270.html</t>
-  </si>
-  <si>
     <t>First bullet of "Highlights"</t>
   </si>
   <si>
+    <t>2019 to 2012 USD</t>
+  </si>
+  <si>
     <t>Range and Fueling Availability 'Costs'</t>
   </si>
   <si>
@@ -96,6 +153,15 @@
     <t>https://www.nrel.gov/docs/fy13osti/55639.pdf</t>
   </si>
   <si>
+    <t>Number of gas pumps</t>
+  </si>
+  <si>
+    <t>Ratio of EVSE ports:Gas pumps</t>
+  </si>
+  <si>
+    <t>Corresponding Fueling Availbility Shadow Cost</t>
+  </si>
+  <si>
     <t>Number of Gas pumps</t>
   </si>
   <si>
@@ -105,21 +171,21 @@
     <t>Stop Comparing the Number of Gas Stations to EV Charging Stations</t>
   </si>
   <si>
+    <t>Number of EVSE Ports</t>
+  </si>
+  <si>
+    <t>Alternative Fuels Data Center</t>
+  </si>
+  <si>
+    <t>Electric Vehicle Charging Station Locations</t>
+  </si>
+  <si>
+    <t>https://afdc.energy.gov/fuels/electricity_locations.html#/analyze?fuel=ELEC</t>
+  </si>
+  <si>
     <t>https://cleantechnica.com/2018/03/07/stop-comparing-number-gas-stations-ev-charging-stations/</t>
   </si>
   <si>
-    <t>Number of EVSE Ports</t>
-  </si>
-  <si>
-    <t>Alternative Fuels Data Center</t>
-  </si>
-  <si>
-    <t>Electric Vehicle Charging Station Locations</t>
-  </si>
-  <si>
-    <t>https://afdc.energy.gov/fuels/electricity_locations.html#/analyze?fuel=ELEC</t>
-  </si>
-  <si>
     <t>Gasoline vehicle range</t>
   </si>
   <si>
@@ -132,27 +198,21 @@
     <t>First Figure</t>
   </si>
   <si>
+    <t>median range ice (hundred miles)</t>
+  </si>
+  <si>
+    <t>Inside Evs</t>
+  </si>
+  <si>
+    <t>The Median Range of Fully Electric Vehicles Exceeded 250 Miles in 2020</t>
+  </si>
+  <si>
+    <t>https://insideevs.com/news/464449/median-range-evs-2020-exceeded-250-miles/</t>
+  </si>
+  <si>
     <t>EV range</t>
   </si>
   <si>
-    <t>Inside Evs</t>
-  </si>
-  <si>
-    <t>The Median Range of Fully Electric Vehicles Exceeded 250 Miles in 2020</t>
-  </si>
-  <si>
-    <t>https://insideevs.com/news/464449/median-range-evs-2020-exceeded-250-miles/</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>This variable represents the perceived cost of range anxiety - the fear (or inconvenience around) that</t>
-  </si>
-  <si>
-    <t>the vehicle has insufficient range to reach its destination.</t>
-  </si>
-  <si>
     <t>In the US, we use a DOE study to calculate a Range Compensating Value and a Fuel Availability Value.</t>
   </si>
   <si>
@@ -162,94 +222,49 @@
     <t>and the median ranges of ICE and EV vehicles. For EV vehicles, the current median range has already surpassed</t>
   </si>
   <si>
+    <t>The Fuel Availability Value uses parameters from the DOE study and a comparison of the number of</t>
+  </si>
+  <si>
+    <t>Currency Conversion</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
     <t xml:space="preserve">250 miles and is forecated to continue improving. Therefore, we start with today's median range, and assume </t>
   </si>
   <si>
     <t>the range will reach 300 miles by 2050.</t>
   </si>
   <si>
-    <t>The Fuel Availability Value uses parameters from the DOE study and a comparison of the number of</t>
-  </si>
-  <si>
     <t>EV charging ports and gas pumps. We also assume this value will decline to 0 by 2050 as more EV chargers come online.</t>
   </si>
   <si>
-    <t>Currency Conversion</t>
-  </si>
-  <si>
-    <t>2019 to 2012 USD</t>
-  </si>
-  <si>
-    <t>Range Compensating Value</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>Year 2020</t>
-  </si>
-  <si>
-    <t>Year 2030</t>
-  </si>
-  <si>
-    <t>Year 2050</t>
-  </si>
-  <si>
-    <t>median range ice (hundred miles)</t>
-  </si>
-  <si>
-    <t>range ev (hundred miles)</t>
-  </si>
-  <si>
-    <t>income (thousand USD)</t>
-  </si>
-  <si>
-    <t>cv (thousand USD)</t>
-  </si>
-  <si>
-    <t>Fueling Availability</t>
-  </si>
-  <si>
-    <t>y = 220.9751 + 7258.141*e^(-28.95171*x)</t>
-  </si>
-  <si>
-    <t>EVSE ports:</t>
-  </si>
-  <si>
-    <t>Number of gas pumps</t>
-  </si>
-  <si>
-    <t>Ratio of EVSE ports:Gas pumps</t>
-  </si>
-  <si>
-    <t>Corresponding Fueling Availbility Shadow Cost</t>
-  </si>
-  <si>
-    <t>Fueling time</t>
-  </si>
-  <si>
-    <t>Ignored, because vast majority of charging can be done overnight and other concerns</t>
-  </si>
-  <si>
-    <t>addressed by fueling availability and range value</t>
-  </si>
-  <si>
-    <t>Calculations</t>
-  </si>
-  <si>
-    <t>Cost ($/vehicle)</t>
-  </si>
-  <si>
-    <t>Shadow cost</t>
+    <t xml:space="preserve">*2020 median range taken from historical data. 2030 and 2050 are estimated, with the 2050 </t>
+  </si>
+  <si>
+    <t>range roughly corresponding to today's maximum range</t>
+  </si>
+  <si>
+    <t>We assume EV charger additions based on investments in the Infrastructure Investment and Jobs Act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total government funding: </t>
+  </si>
+  <si>
+    <t>($7.5 billion between 2022 and 2026), assuming 80% of the costs are paid for by the government.</t>
+  </si>
+  <si>
+    <t>Total government + private funding:</t>
+  </si>
+  <si>
+    <t>Average weighted charger cost (see trans/EVCC):</t>
+  </si>
+  <si>
+    <t>Chargers added by 2026:</t>
+  </si>
+  <si>
+    <t>2020 EVSE ports:</t>
   </si>
 </sst>
 </file>
@@ -259,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +284,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -299,10 +330,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -310,13 +342,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,11 +458,47 @@
             </c:spPr>
             <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8828958880139982E-2"/>
+                  <c:y val="-0.13703885898644008"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Calculations!$A$16:$A$19</c:f>
+              <c:f>Calculations!$A$17:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -444,7 +519,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calculations!$B$16:$B$19</c:f>
+              <c:f>Calculations!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1225,7 +1300,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1521,313 +1596,316 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
         <v>2016</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>37</v>
       </c>
       <c r="B53">
         <v>0.89805481563188172</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B38" r:id="rId1" xr:uid="{14EF0A86-0973-41E2-9D23-51C96C77958E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341A17B3-AFD9-42DA-AB68-E46FC6CF1D40}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>-0.36099999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1.268</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7">
+        <v>2030</v>
+      </c>
+      <c r="D7">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>46</v>
       </c>
       <c r="B8">
         <v>4.12</v>
@@ -1840,176 +1918,231 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2.59</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="10">
         <v>4.12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>68.703000000000003</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <f>income</f>
         <v>68.703000000000003</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="10">
         <f>B10</f>
         <v>68.703000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="5">
-        <f>($B$4/$B$2*B9*(1-B8/B9)+$B$5/$B$2*B9^2*(1-B8^2/B9^2))*LN(income)</f>
-        <v>8.7776895901028578</v>
-      </c>
-      <c r="C13" s="5">
-        <f>($B$4/$B$2*C9*(1-C8/C9)+$B$5/$B$2*C9^2*(1-C8^2/C9^2))*LN(income)</f>
-        <v>5.8013729917508945</v>
-      </c>
-      <c r="D13" s="5">
-        <f>($B$4/$B$2*D9*(1-D8/D9)+$B$5/$B$2*D9^2*(1-D8^2/D9^2))*LN(income)</f>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6">
+        <f>($B$4/$B$2*B9*(1-B8/B9)+$B$5/$B$2*B9^2*(1-B8^2/B9^2))*LN(income)*About!$B$53</f>
+        <v>7.8828464065137096</v>
+      </c>
+      <c r="C14" s="6">
+        <f>($B$4/$B$2*C9*(1-C8/C9)+$B$5/$B$2*C9^2*(1-C8^2/C9^2))*LN(income)*About!$B$53</f>
+        <v>5.2099509525186276</v>
+      </c>
+      <c r="D14" s="6">
+        <f>($B$4/$B$2*D9*(1-D8/D9)+$B$5/$B$2*D9^2*(1-D8^2/D9^2))*LN(income)*About!$B$53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>7500</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>0.05</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>1750</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>0.1</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24">
         <v>120045</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
         <v>1200000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="C27">
+        <v>2027</v>
+      </c>
+      <c r="D27">
+        <v>2030</v>
+      </c>
+      <c r="E27">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <f>B24/B25</f>
+        <v>0.1000375</v>
+      </c>
+      <c r="C28">
+        <f>(B24+'EV charger assumptions'!B9)/Calculations!B25</f>
+        <v>0.41965865943214825</v>
+      </c>
+      <c r="D28">
+        <f>(E28-C28)/(E27-C27)*3+C28</f>
+        <v>0.495355356027955</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <f>B19*About!$B$53</f>
+        <v>898.05481563188175</v>
+      </c>
+      <c r="C29">
+        <f>-667.1*LN(C28)-241.23</f>
+        <v>338.02201174921117</v>
+      </c>
+      <c r="D29">
+        <f>-667.1*LN(D28)-241.23</f>
+        <v>227.39432995486422</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B25">
-        <f>B23/B24</f>
-        <v>0.1000375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26">
-        <f>B18</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>2020</v>
       </c>
-      <c r="B33">
-        <f>B13*1000+B26</f>
-        <v>9777.6895901028583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="B36">
+        <f>B14*1000+B29</f>
+        <v>8780.9012221455905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2027</v>
+      </c>
+      <c r="B37" cm="1">
+        <f t="array" ref="B37">TREND(B14:C14,B7:C7,C27)*1000+C29</f>
+        <v>6349.8416004663277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>2030</v>
       </c>
-      <c r="B34">
-        <f>C13*1000+B26</f>
-        <v>6801.3729917508945</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="B38">
+        <f>C14*1000+D29</f>
+        <v>5437.3452824734923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>2050</v>
       </c>
-      <c r="B35">
-        <f>D13*1000+B26</f>
-        <v>1000</v>
+      <c r="B39">
+        <f>D14*1000+E29</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2020,562 +2153,313 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:AI2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D98A39-3A78-451F-9516-0CF8624C92E2}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="4">
-        <v>2018</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2020</v>
-      </c>
-      <c r="E1">
-        <v>2021</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2022</v>
-      </c>
-      <c r="G1">
-        <v>2023</v>
-      </c>
-      <c r="H1" s="4">
-        <v>2024</v>
-      </c>
-      <c r="I1">
-        <v>2025</v>
-      </c>
-      <c r="J1" s="4">
-        <v>2026</v>
-      </c>
-      <c r="K1">
-        <v>2027</v>
-      </c>
-      <c r="L1" s="4">
-        <v>2028</v>
-      </c>
-      <c r="M1">
-        <v>2029</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2030</v>
-      </c>
-      <c r="O1">
-        <v>2031</v>
-      </c>
-      <c r="P1" s="4">
-        <v>2032</v>
-      </c>
-      <c r="Q1">
-        <v>2033</v>
-      </c>
-      <c r="R1" s="4">
-        <v>2034</v>
-      </c>
-      <c r="S1">
-        <v>2035</v>
-      </c>
-      <c r="T1" s="4">
-        <v>2036</v>
-      </c>
-      <c r="U1">
-        <v>2037</v>
-      </c>
-      <c r="V1" s="4">
-        <v>2038</v>
-      </c>
-      <c r="W1">
-        <v>2039</v>
-      </c>
-      <c r="X1" s="4">
-        <v>2040</v>
-      </c>
-      <c r="Y1">
-        <v>2041</v>
-      </c>
-      <c r="Z1" s="4">
-        <v>2042</v>
-      </c>
-      <c r="AA1">
-        <v>2043</v>
-      </c>
-      <c r="AB1" s="4">
-        <v>2044</v>
-      </c>
-      <c r="AC1">
-        <v>2045</v>
-      </c>
-      <c r="AD1" s="4">
-        <v>2046</v>
-      </c>
-      <c r="AE1">
-        <v>2047</v>
-      </c>
-      <c r="AF1" s="4">
-        <v>2048</v>
-      </c>
-      <c r="AG1">
-        <v>2049</v>
-      </c>
-      <c r="AH1" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3" cm="1">
-        <f t="array" ref="B2">TREND(C2:H2,C1:H1,B1)</f>
-        <v>10372.952909773099</v>
-      </c>
-      <c r="C2" s="3" cm="1">
-        <f t="array" ref="C2">TREND(D2:I2,D1:I1,C1)</f>
-        <v>10075.321249937988</v>
-      </c>
-      <c r="D2" s="3" cm="1">
-        <f t="array" ref="D2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!D1)</f>
-        <v>9777.6895901027601</v>
-      </c>
-      <c r="E2" s="3" cm="1">
-        <f t="array" ref="E2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!E1)</f>
-        <v>9480.0579302676488</v>
-      </c>
-      <c r="F2" s="3" cm="1">
-        <f t="array" ref="F2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!F1)</f>
-        <v>9182.426270432421</v>
-      </c>
-      <c r="G2" s="3" cm="1">
-        <f t="array" ref="G2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!G1)</f>
-        <v>8884.7946105971932</v>
-      </c>
-      <c r="H2" s="3" cm="1">
-        <f t="array" ref="H2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!H1)</f>
-        <v>8587.1629507620819</v>
-      </c>
-      <c r="I2" s="3" cm="1">
-        <f t="array" ref="I2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!I1)</f>
-        <v>8289.5312909268541</v>
-      </c>
-      <c r="J2" s="3" cm="1">
-        <f t="array" ref="J2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!J1)</f>
-        <v>7991.8996310916264</v>
-      </c>
-      <c r="K2" s="3" cm="1">
-        <f t="array" ref="K2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!K1)</f>
-        <v>7694.2679712563986</v>
-      </c>
-      <c r="L2" s="3" cm="1">
-        <f t="array" ref="L2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!L1)</f>
-        <v>7396.6363114212872</v>
-      </c>
-      <c r="M2" s="3" cm="1">
-        <f t="array" ref="M2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!M1)</f>
-        <v>7099.0046515860595</v>
-      </c>
-      <c r="N2" s="3" cm="1">
-        <f t="array" ref="N2">TREND(Calculations!$B$33:$B$34,Calculations!$A$33:$A$34,BRAaCTSC!N1)</f>
-        <v>6801.3729917508317</v>
-      </c>
-      <c r="O2" s="3" cm="1">
-        <f t="array" ref="O2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!O1)</f>
-        <v>6511.3043421633774</v>
-      </c>
-      <c r="P2" s="3" cm="1">
-        <f t="array" ref="P2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!P1)</f>
-        <v>6221.2356925758068</v>
-      </c>
-      <c r="Q2" s="3" cm="1">
-        <f t="array" ref="Q2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Q1)</f>
-        <v>5931.1670429883525</v>
-      </c>
-      <c r="R2" s="3" cm="1">
-        <f t="array" ref="R2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!R1)</f>
-        <v>5641.0983934007818</v>
-      </c>
-      <c r="S2" s="3" cm="1">
-        <f t="array" ref="S2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!S1)</f>
-        <v>5351.0297438132111</v>
-      </c>
-      <c r="T2" s="3" cm="1">
-        <f t="array" ref="T2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!T1)</f>
-        <v>5060.9610942256404</v>
-      </c>
-      <c r="U2" s="3" cm="1">
-        <f t="array" ref="U2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!U1)</f>
-        <v>4770.8924446381861</v>
-      </c>
-      <c r="V2" s="3" cm="1">
-        <f t="array" ref="V2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!V1)</f>
-        <v>4480.8237950506154</v>
-      </c>
-      <c r="W2" s="3" cm="1">
-        <f t="array" ref="W2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!W1)</f>
-        <v>4190.7551454630448</v>
-      </c>
-      <c r="X2" s="3" cm="1">
-        <f t="array" ref="X2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!X1)</f>
-        <v>3900.6864958754741</v>
-      </c>
-      <c r="Y2" s="3" cm="1">
-        <f t="array" ref="Y2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Y1)</f>
-        <v>3610.6178462879034</v>
-      </c>
-      <c r="Z2" s="3" cm="1">
-        <f t="array" ref="Z2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!Z1)</f>
-        <v>3320.5491967004491</v>
-      </c>
-      <c r="AA2" s="3" cm="1">
-        <f t="array" ref="AA2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AA1)</f>
-        <v>3030.4805471128784</v>
-      </c>
-      <c r="AB2" s="3" cm="1">
-        <f t="array" ref="AB2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AB1)</f>
-        <v>2740.4118975253077</v>
-      </c>
-      <c r="AC2" s="3" cm="1">
-        <f t="array" ref="AC2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AC1)</f>
-        <v>2450.343247937737</v>
-      </c>
-      <c r="AD2" s="3" cm="1">
-        <f t="array" ref="AD2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AD1)</f>
-        <v>2160.2745983502828</v>
-      </c>
-      <c r="AE2" s="3" cm="1">
-        <f t="array" ref="AE2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AE1)</f>
-        <v>1870.2059487627121</v>
-      </c>
-      <c r="AF2" s="3" cm="1">
-        <f t="array" ref="AF2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AF1)</f>
-        <v>1580.1372991751414</v>
-      </c>
-      <c r="AG2" s="3" cm="1">
-        <f t="array" ref="AG2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AG1)</f>
-        <v>1290.0686495875707</v>
-      </c>
-      <c r="AH2" s="3" cm="1">
-        <f t="array" ref="AH2">TREND(Calculations!$B$34:$B$35,Calculations!$A$34:$A$35,BRAaCTSC!AH1)</f>
-        <v>1000</v>
-      </c>
-      <c r="AI2" s="3"/>
+      <c r="B4">
+        <v>7500000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <f>B4/0.8</f>
+        <v>9375000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>24443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3">
+        <f>B5/B7</f>
+        <v>383545.39131857792</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
-                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46A52D7-DB8F-4B82-AC10-C8C125CE2827}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E26F15-6A12-499B-9D28-5F7ED7789135}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2024</v>
+      </c>
+      <c r="G1">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2030</v>
+      </c>
+      <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
+        <v>2035</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1" s="4">
+        <v>2040</v>
+      </c>
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
+        <v>2045</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" cm="1">
+        <f t="array" ref="B2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!B1)</f>
+        <v>8780.9012221456505</v>
+      </c>
+      <c r="C2" s="3" cm="1">
+        <f t="array" ref="C2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!C1)</f>
+        <v>8433.6069904771866</v>
+      </c>
+      <c r="D2" s="3" cm="1">
+        <f t="array" ref="D2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!D1)</f>
+        <v>8086.3127588086063</v>
+      </c>
+      <c r="E2" s="3" cm="1">
+        <f t="array" ref="E2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!E1)</f>
+        <v>7739.0185271401424</v>
+      </c>
+      <c r="F2" s="3" cm="1">
+        <f t="array" ref="F2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!F1)</f>
+        <v>7391.7242954716785</v>
+      </c>
+      <c r="G2" s="3" cm="1">
+        <f t="array" ref="G2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!G1)</f>
+        <v>7044.4300638032146</v>
+      </c>
+      <c r="H2" s="3" cm="1">
+        <f t="array" ref="H2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!H1)</f>
+        <v>6697.1358321347507</v>
+      </c>
+      <c r="I2" s="3" cm="1">
+        <f t="array" ref="I2">TREND(Calculations!$B$36:$B$37,Calculations!$A$36:$A$37,BRAaCTSC!I1)</f>
+        <v>6349.8416004662868</v>
+      </c>
+      <c r="J2" s="3" cm="1">
+        <f t="array" ref="J2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!J1)</f>
+        <v>6045.6761611354304</v>
+      </c>
+      <c r="K2" s="3" cm="1">
+        <f t="array" ref="K2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!K1)</f>
+        <v>5741.5107218045741</v>
+      </c>
+      <c r="L2" s="3" cm="1">
+        <f t="array" ref="L2">TREND(Calculations!$B$37:$B$38,Calculations!$A$37:$A$38,BRAaCTSC!L1)</f>
+        <v>5437.3452824736014</v>
+      </c>
+      <c r="M2" s="3" cm="1">
+        <f t="array" ref="M2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!M1)</f>
+        <v>5165.4780183498515</v>
+      </c>
+      <c r="N2" s="3" cm="1">
+        <f t="array" ref="N2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!N1)</f>
+        <v>4893.610754226218</v>
+      </c>
+      <c r="O2" s="3" cm="1">
+        <f t="array" ref="O2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!O1)</f>
+        <v>4621.7434901024681</v>
+      </c>
+      <c r="P2" s="3" cm="1">
+        <f t="array" ref="P2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!P1)</f>
+        <v>4349.8762259788346</v>
+      </c>
+      <c r="Q2" s="3" cm="1">
+        <f t="array" ref="Q2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Q1)</f>
+        <v>4078.0089618552011</v>
+      </c>
+      <c r="R2" s="3" cm="1">
+        <f t="array" ref="R2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!R1)</f>
+        <v>3806.1416977314511</v>
+      </c>
+      <c r="S2" s="3" cm="1">
+        <f t="array" ref="S2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!S1)</f>
+        <v>3534.2744336078176</v>
+      </c>
+      <c r="T2" s="3" cm="1">
+        <f t="array" ref="T2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!T1)</f>
+        <v>3262.4071694841841</v>
+      </c>
+      <c r="U2" s="3" cm="1">
+        <f t="array" ref="U2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!U1)</f>
+        <v>2990.5399053604342</v>
+      </c>
+      <c r="V2" s="3" cm="1">
+        <f t="array" ref="V2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!V1)</f>
+        <v>2718.6726412368007</v>
+      </c>
+      <c r="W2" s="3" cm="1">
+        <f t="array" ref="W2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!W1)</f>
+        <v>2446.8053771130508</v>
+      </c>
+      <c r="X2" s="3" cm="1">
+        <f t="array" ref="X2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!X1)</f>
+        <v>2174.9381129894173</v>
+      </c>
+      <c r="Y2" s="3" cm="1">
+        <f t="array" ref="Y2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Y1)</f>
+        <v>1903.0708488657838</v>
+      </c>
+      <c r="Z2" s="3" cm="1">
+        <f t="array" ref="Z2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!Z1)</f>
+        <v>1631.2035847420339</v>
+      </c>
+      <c r="AA2" s="3" cm="1">
+        <f t="array" ref="AA2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AA1)</f>
+        <v>1359.3363206184004</v>
+      </c>
+      <c r="AB2" s="3" cm="1">
+        <f t="array" ref="AB2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AB1)</f>
+        <v>1087.4690564947668</v>
+      </c>
+      <c r="AC2" s="3" cm="1">
+        <f t="array" ref="AC2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AC1)</f>
+        <v>815.60179237101693</v>
+      </c>
+      <c r="AD2" s="3" cm="1">
+        <f t="array" ref="AD2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AD1)</f>
+        <v>543.73452824738342</v>
+      </c>
+      <c r="AE2" s="3" cm="1">
+        <f t="array" ref="AE2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AE1)</f>
+        <v>271.86726412374992</v>
+      </c>
+      <c r="AF2" s="3" cm="1">
+        <f t="array" ref="AF2">TREND(Calculations!$B$38:$B$39,Calculations!$A$38:$A$39,BRAaCTSC!AF1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -2293,8 +2293,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -2320,6 +2320,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2420,6 +2421,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2552,6 +2558,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46A52D7-DB8F-4B82-AC10-C8C125CE2827}">
   <ds:schemaRefs>
@@ -2561,21 +2587,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E26F15-6A12-499B-9D28-5F7ED7789135}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1BF102A-DA07-4FD6-BCCB-62466AF7CE4B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBF526A3-3D63-4EEF-997A-762A87E6163A}"/>
 </file>